--- a/data/teachers_info.xlsx
+++ b/data/teachers_info.xlsx
@@ -481,7 +481,6 @@
           <t>هاشم مشحون</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/13144/user/icon/adaptable/f1?rev=282896</t>
@@ -497,7 +496,6 @@
           <t>محمدرضا جاهدمطلق</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/13150/user/icon/adaptable/f1?rev=1</t>
@@ -513,7 +511,6 @@
           <t>احمد اخلاصی</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/13152/user/icon/adaptable/f1?rev=1</t>
@@ -529,7 +526,6 @@
           <t>محمد فتحیان بروجنی</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/13154/user/icon/adaptable/f1?rev=112350476</t>
@@ -545,7 +541,6 @@
           <t>رضا ترکاشون</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/13156/user/icon/adaptable/f1?rev=1</t>
@@ -561,7 +556,6 @@
           <t>جواد مرزبان راد</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35855/user/icon/adaptable/f1?rev=111447662</t>
@@ -577,7 +571,6 @@
           <t>حسن نادری</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35863/user/icon/adaptable/f1?rev=1</t>
@@ -593,7 +586,6 @@
           <t>روزبه قوسی</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35876/user/icon/adaptable/f1?rev=1</t>
@@ -609,7 +601,6 @@
           <t>احمد ماکویی</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35884/user/icon/adaptable/f1?rev=1</t>
@@ -625,7 +616,6 @@
           <t>سید جعفر سجادی</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35887/user/icon/adaptable/f1?rev=1</t>
@@ -641,7 +631,6 @@
           <t>مرتضی باقری</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35894/user/icon/adaptable/f1?rev=1</t>
@@ -657,7 +646,6 @@
           <t>مهدی شایگان منش</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35896/user/icon/adaptable/f1?rev=1</t>
@@ -693,7 +681,6 @@
           <t>مسعود یقینی</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35921/user/icon/adaptable/f1?rev=1</t>
@@ -706,10 +693,9 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>علي جعفري</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>علی جعفری</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35945/user/icon/adaptable/f1?rev=1</t>
@@ -725,7 +711,6 @@
           <t>محمد رستگار مقدم</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/35979/user/icon/adaptable/f1?rev=126059790</t>
@@ -741,7 +726,6 @@
           <t>علیرضا ذاکری</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36005/user/icon/adaptable/f1?rev=1</t>
@@ -757,7 +741,6 @@
           <t>حمید صفاری نطنزی</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36006/user/icon/adaptable/f1?rev=1</t>
@@ -773,7 +756,6 @@
           <t>شهرام جدید</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36007/user/icon/adaptable/f1?rev=1</t>
@@ -789,7 +771,6 @@
           <t>سعید عبادالهی</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36009/user/icon/adaptable/f1?rev=1</t>
@@ -805,7 +786,6 @@
           <t>روح اله رحمانی فرد</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36010/user/icon/adaptable/f1?rev=1</t>
@@ -821,7 +801,6 @@
           <t>عادل ترکمان رحمانی</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36011/user/icon/adaptable/f1?rev=1</t>
@@ -837,7 +816,6 @@
           <t>سید مهدی حسینی مطلق</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36012/user/icon/adaptable/f1?rev=1</t>
@@ -853,7 +831,6 @@
           <t>حمید بهنام</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36013/user/icon/adaptable/f1?rev=1</t>
@@ -869,7 +846,6 @@
           <t>روح الله حاجی عبدالوهاب</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36015/user/icon/adaptable/f1?rev=1</t>
@@ -885,7 +861,6 @@
           <t>آسیه نمازی</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36016/user/icon/adaptable/f1?rev=1</t>
@@ -901,7 +876,6 @@
           <t>رضا معدولیت</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36017/user/icon/adaptable/f1?rev=1</t>
@@ -917,7 +891,6 @@
           <t>عباس شولایی</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36018/user/icon/adaptable/f1?rev=1</t>
@@ -933,7 +906,6 @@
           <t>سید محمد میرکاظمی</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36019/user/icon/adaptable/f1?rev=1</t>
@@ -949,7 +921,6 @@
           <t>فرزانه فیضی</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36021/user/icon/adaptable/f1?rev=1</t>
@@ -965,7 +936,6 @@
           <t>مهدی دیواندری</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36022/user/icon/adaptable/f1?rev=1</t>
@@ -981,7 +951,6 @@
           <t>محمد تقی صادقی</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36023/user/icon/adaptable/f1?rev=1</t>
@@ -997,7 +966,6 @@
           <t>علی توکلی کاشانی</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36025/user/icon/adaptable/f1?rev=1</t>
@@ -1013,7 +981,6 @@
           <t>سیدمصطفی سیادت موسوی</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36026/user/icon/adaptable/f1?rev=110151393</t>
@@ -1029,7 +996,6 @@
           <t>حمیدرضا جعفریان</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36027/user/icon/adaptable/f1?rev=1</t>
@@ -1045,7 +1011,6 @@
           <t>محمدعلی صندیدزاده</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36028/user/icon/adaptable/f1?rev=111389192</t>
@@ -1081,7 +1046,6 @@
           <t>محسن سعیدی</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36030/user/icon/adaptable/f1?rev=114148365</t>
@@ -1097,7 +1061,6 @@
           <t>برهان بیگ زاده</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36031/user/icon/adaptable/f1?rev=1</t>
@@ -1113,7 +1076,6 @@
           <t>شروان عطایی</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36032/user/icon/adaptable/f1?rev=1</t>
@@ -1129,7 +1091,6 @@
           <t>بهروز مشهدی</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36033/user/icon/adaptable/f1?rev=1</t>
@@ -1165,7 +1126,6 @@
           <t>سید محمد رضوی زاده</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36035/user/icon/adaptable/f1?rev=1</t>
@@ -1181,7 +1141,6 @@
           <t>مریم صمدانی</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36038/user/icon/adaptable/f1?rev=1</t>
@@ -1217,7 +1176,6 @@
           <t>سلمان موحدی راد</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36040/user/icon/adaptable/f1?rev=1</t>
@@ -1230,10 +1188,9 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>دکتر مسعود جزايري</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>دکتر مسعود جزایری</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36042/user/icon/adaptable/f1?rev=1</t>
@@ -1249,7 +1206,6 @@
           <t>برات مجردی</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36043/user/icon/adaptable/f1?rev=1</t>
@@ -1265,7 +1221,6 @@
           <t>سمیه سعیدی نژاد</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36044/user/icon/adaptable/f1?rev=111375179</t>
@@ -1321,7 +1276,6 @@
           <t>سیدمحمدرضا موسوی میرکلایی</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36061/user/icon/adaptable/f1?rev=1</t>
@@ -1337,7 +1291,6 @@
           <t>ابوالفضل خلخالی</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36062/user/icon/adaptable/f1?rev=1</t>
@@ -1353,7 +1306,6 @@
           <t>محمدرضا غلامیان</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36066/user/icon/adaptable/f1?rev=1</t>
@@ -1369,7 +1321,6 @@
           <t>جمال الدین شریعتی</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36067/user/icon/adaptable/f1?rev=1</t>
@@ -1385,7 +1336,6 @@
           <t>محسن سریانی</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36090/user/icon/adaptable/f1?rev=1</t>
@@ -1401,7 +1351,6 @@
           <t>ابوالفضل واحدی</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36092/user/icon/adaptable/f1?rev=1</t>
@@ -1434,10 +1383,9 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>دکتر مهدي سرگلزائي</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>دکتر مهدی سرگلزائی</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36131/user/icon/adaptable/f1?rev=1</t>
@@ -1453,7 +1401,6 @@
           <t>فرزان حدادی</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36140/user/icon/adaptable/f1?rev=1</t>
@@ -1489,7 +1436,6 @@
           <t>محمدحسین مهدیه</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36164/user/icon/adaptable/f1?rev=125010222</t>
@@ -1505,7 +1451,6 @@
           <t>مرتضی آنالویی</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36165/user/icon/adaptable/f1?rev=1</t>
@@ -1541,7 +1486,6 @@
           <t>جواد پشتان</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36201/user/icon/adaptable/f1?rev=1</t>
@@ -1557,7 +1501,6 @@
           <t>غلامرضا رمضان نیا</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36204/user/icon/adaptable/f1?rev=1</t>
@@ -1573,7 +1516,6 @@
           <t>پرویز قدوسی</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36206/user/icon/adaptable/f1?rev=1</t>
@@ -1589,7 +1531,6 @@
           <t>پریسا حسینی تهرانی</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36239/user/icon/adaptable/f1?rev=1</t>
@@ -1605,7 +1546,6 @@
           <t>مجید بختیاری</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36416/user/icon/adaptable/f1?rev=1</t>
@@ -1641,7 +1581,6 @@
           <t>محمد اسدرخت</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36470/user/icon/adaptable/f1?rev=110103644</t>
@@ -1657,7 +1596,6 @@
           <t>مرتضی ملاجعفری</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36486/user/icon/adaptable/f1?rev=1</t>
@@ -1670,10 +1608,9 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>محمد عماد مطيعيان نجار</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>محمد عماد مطیعیان نجار</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36509/user/icon/adaptable/f1?rev=1</t>
@@ -1689,7 +1626,6 @@
           <t>سیده اشرف موسوی لقمان</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36533/user/icon/adaptable/f1?rev=120956889</t>
@@ -1725,7 +1661,6 @@
           <t>جواد غفاری</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36684/user/icon/adaptable/f1?rev=1</t>
@@ -1741,7 +1676,6 @@
           <t>امیرحسن کاکایی</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36706/user/icon/adaptable/f1?rev=1</t>
@@ -1757,7 +1691,6 @@
           <t>علی ملکی</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36714/user/icon/adaptable/f1?rev=1</t>
@@ -1793,7 +1726,6 @@
           <t>مجید پورمسگری</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36767/user/icon/adaptable/f1?rev=1</t>
@@ -1806,10 +1738,9 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>محمد حسين قائمي نيا</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
+          <t>محمد حسین قائمی نیا</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36795/user/icon/adaptable/f1?rev=1</t>
@@ -1845,7 +1776,6 @@
           <t>مهیار خسروی</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36814/user/icon/adaptable/f1?rev=1</t>
@@ -1861,7 +1791,6 @@
           <t>عین الله خنجری</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36815/user/icon/adaptable/f1?rev=1</t>
@@ -1877,7 +1806,6 @@
           <t>حمیدرضا صفری</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36822/user/icon/adaptable/f1?rev=117042735</t>
@@ -1893,7 +1821,6 @@
           <t>علیرضا ایوانی</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36834/user/icon/adaptable/f1?rev=1</t>
@@ -1909,7 +1836,6 @@
           <t>حمیدرضا جلیلیان خالقی</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36852/user/icon/adaptable/f1?rev=1</t>
@@ -1925,7 +1851,6 @@
           <t>روح الله زارع دورابی</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36880/user/icon/adaptable/f1?rev=1</t>
@@ -1961,7 +1886,6 @@
           <t>محمد هادی علائیان</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36941/user/icon/adaptable/f1?rev=1</t>
@@ -1977,7 +1901,6 @@
           <t>سعید شبستری</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36950/user/icon/adaptable/f1?rev=1</t>
@@ -2033,7 +1956,6 @@
           <t>عزیز شیخ علیزاده</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/36996/user/icon/adaptable/f1?rev=1</t>
@@ -2049,7 +1971,6 @@
           <t>افسانه ملاحسینی</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/37027/user/icon/adaptable/f1?rev=1</t>
@@ -2065,7 +1986,6 @@
           <t>الهام رجبی</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/37139/user/icon/adaptable/f1?rev=1</t>
@@ -2081,7 +2001,6 @@
           <t>سعید یعقوبی</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/39566/user/icon/adaptable/f1?rev=1</t>
@@ -2094,10 +2013,9 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>محمّدعلي فردباستاني</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>محمّدعلی فردباستانی</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/39775/user/icon/adaptable/f1?rev=1</t>
@@ -2113,7 +2031,6 @@
           <t>مجید سیاوشی</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/39969/user/icon/adaptable/f1?rev=1</t>
@@ -2129,7 +2046,6 @@
           <t>اسماعیل خان میرزا</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/39971/user/icon/adaptable/f1?rev=1</t>
@@ -2145,7 +2061,6 @@
           <t>محمد فصیحی دستجردی</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/39984/user/icon/adaptable/f1?rev=1</t>
@@ -2161,7 +2076,6 @@
           <t>علیرضا زاهدی</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/40127/user/icon/adaptable/f1?rev=1</t>
@@ -2177,7 +2091,6 @@
           <t>ابراهیم شفیعی</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/40159/user/icon/adaptable/f1?rev=1</t>
@@ -2193,7 +2106,6 @@
           <t>فرناز برزین پور</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/51504/user/icon/adaptable/f1?rev=117148755</t>
@@ -2229,7 +2141,6 @@
           <t>سینا فرهی فر</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/55610/user/icon/adaptable/f1?rev=1</t>
@@ -2245,7 +2156,6 @@
           <t>سید طه حسین مرتجی</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/55632/user/icon/adaptable/f1?rev=1</t>
@@ -2261,7 +2171,6 @@
           <t>آرمین جبارزاده</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/55689/user/icon/adaptable/f1?rev=1</t>
@@ -2277,7 +2186,6 @@
           <t>نعیم یوسفی لادمخی</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/55701/user/icon/adaptable/f1?rev=111436276</t>
@@ -2293,7 +2201,6 @@
           <t>اقدس بدیعی</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/55723/user/icon/adaptable/f1?rev=1</t>
@@ -2309,7 +2216,6 @@
           <t>سیدحسن هاشم آبادی</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/55737/user/icon/adaptable/f1?rev=1</t>
@@ -2345,7 +2251,6 @@
           <t>وحید شالچیان</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56100/user/icon/adaptable/f1?rev=1</t>
@@ -2361,7 +2266,6 @@
           <t>ندا کامبوزیا</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56121/user/icon/adaptable/f1?rev=1</t>
@@ -2377,7 +2281,6 @@
           <t>باقر محمد صادقی</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56177/user/icon/adaptable/f1?rev=1</t>
@@ -2393,7 +2296,6 @@
           <t>تورج نیک آزاد</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56178/user/icon/adaptable/f1?rev=1</t>
@@ -2409,7 +2311,6 @@
           <t>افشین شریعت مهیمنی</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56183/user/icon/adaptable/f1?rev=113222097</t>
@@ -2425,7 +2326,6 @@
           <t>بهشته سهرابی</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56184/user/icon/adaptable/f1?rev=1</t>
@@ -2441,7 +2341,6 @@
           <t>محسن شریفی</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56190/user/icon/adaptable/f1?rev=1</t>
@@ -2457,7 +2356,6 @@
           <t>شهرزاد جوانشیر</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56200/user/icon/adaptable/f1?rev=1</t>
@@ -2473,7 +2371,6 @@
           <t>محمد رضا طلائی</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56205/user/icon/adaptable/f1?rev=1</t>
@@ -2489,7 +2386,6 @@
           <t>غلامحسین کتابی</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56206/user/icon/adaptable/f1?rev=1</t>
@@ -2505,7 +2401,6 @@
           <t>محمد سلیمانی</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56207/user/icon/adaptable/f1?rev=1</t>
@@ -2521,7 +2416,6 @@
           <t>سعید شمقدری</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56208/user/icon/adaptable/f1?rev=1</t>
@@ -2537,7 +2431,6 @@
           <t>محسنعلی شایانفر</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56209/user/icon/adaptable/f1?rev=1</t>
@@ -2553,7 +2446,6 @@
           <t>احمد اکبری ازیرانی</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56214/user/icon/adaptable/f1?rev=1</t>
@@ -2569,7 +2461,6 @@
           <t>اسمعیل عبدالله زاده</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56223/user/icon/adaptable/f1?rev=1</t>
@@ -2585,7 +2476,6 @@
           <t>سیدهاشم مسدد</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56224/user/icon/adaptable/f1?rev=1</t>
@@ -2601,7 +2491,6 @@
           <t>مجید طیرانی</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56232/user/icon/adaptable/f1?rev=1</t>
@@ -2617,7 +2506,6 @@
           <t>مجید شهروی</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56233/user/icon/adaptable/f1?rev=1</t>
@@ -2633,7 +2521,6 @@
           <t>سیدسعید سیادت نژاد</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56237/user/icon/adaptable/f1?rev=1</t>
@@ -2649,7 +2536,6 @@
           <t>محسن صفاردزفولی</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56243/user/icon/adaptable/f1?rev=110108755</t>
@@ -2665,7 +2551,6 @@
           <t>احمد چلداوی</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56274/user/icon/adaptable/f1?rev=1</t>
@@ -2681,7 +2566,6 @@
           <t>زهره مستقیم</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56294/user/icon/adaptable/f1?rev=1</t>
@@ -2697,7 +2581,6 @@
           <t>محمد سعیدی مهرآباد</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56309/user/icon/adaptable/f1?rev=1</t>
@@ -2713,7 +2596,6 @@
           <t>ناصر نیاکان</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56316/user/icon/adaptable/f1?rev=106551802</t>
@@ -2729,7 +2611,6 @@
           <t>ابوالفضل اسکندری</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56354/user/icon/adaptable/f1?rev=1</t>
@@ -2742,10 +2623,9 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>دکتر حميدرضا صميم بني هاشمي</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
+          <t>دکتر حمیدرضا صمیم بنی هاشمی</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56408/user/icon/adaptable/f1?rev=1</t>
@@ -2761,7 +2641,6 @@
           <t>فاطمه صبوحی</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56421/user/icon/adaptable/f1?rev=1</t>
@@ -2777,7 +2656,6 @@
           <t>عبدالرحمن حائری</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/56426/user/icon/adaptable/f1?rev=1</t>
@@ -2793,7 +2671,6 @@
           <t>محمدرضا قطره سامانی</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57118/user/icon/adaptable/f1?rev=121122667</t>
@@ -2809,7 +2686,6 @@
           <t>غلامرضا شهریاری مقدم</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57199/user/icon/adaptable/f1?rev=1</t>
@@ -2825,7 +2701,6 @@
           <t>سمیه اعلم الهدی</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57223/user/icon/adaptable/f1?rev=1</t>
@@ -2841,7 +2716,6 @@
           <t>علیرضا حبیب نژاد کورایم</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57434/user/icon/adaptable/f1?rev=1</t>
@@ -2877,7 +2751,6 @@
           <t>باقر ذهبیون</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57631/user/icon/adaptable/f1?rev=1</t>
@@ -2893,7 +2766,6 @@
           <t>محمد عظیم کرمی</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57632/user/icon/adaptable/f1?rev=1</t>
@@ -2909,7 +2781,6 @@
           <t>سید مجید اسماعیل زاده</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57633/user/icon/adaptable/f1?rev=1</t>
@@ -2925,7 +2796,6 @@
           <t>مسعود جمشیدی</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/57658/user/icon/adaptable/f1?rev=1</t>
@@ -2961,7 +2831,6 @@
           <t>مسعود هاشمی نیاسری</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72004/user/icon/adaptable/f1?rev=1</t>
@@ -2974,10 +2843,9 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>دکتر حسين بنا</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
+          <t>دکتر حسین بنا</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72363/user/icon/adaptable/f1?rev=1</t>
@@ -2993,7 +2861,6 @@
           <t>هادی صاحبی شاهم آبادی</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72391/user/icon/adaptable/f1?rev=1</t>
@@ -3009,7 +2876,6 @@
           <t>علیرضا سلیمانی خوشرو</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72533/user/icon/adaptable/f1?rev=128891736</t>
@@ -3025,7 +2891,6 @@
           <t>عبدالحسین محمدی</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72552/user/icon/adaptable/f1?rev=1</t>
@@ -3041,7 +2906,6 @@
           <t>سعید میرزامحمدی</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72589/user/icon/adaptable/f1?rev=1</t>
@@ -3077,7 +2941,6 @@
           <t>سیداصغر موسوی</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72792/user/icon/adaptable/f1?rev=1</t>
@@ -3093,7 +2956,6 @@
           <t>فرهاد بختیاری</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72856/user/icon/adaptable/f1?rev=1</t>
@@ -3109,7 +2971,6 @@
           <t>غلامرضا مولائی منش</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/72860/user/icon/adaptable/f1?rev=1</t>
@@ -3145,7 +3006,6 @@
           <t>حمیدرضا مازندرانی</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/89085/user/icon/adaptable/f1?rev=111433988</t>
@@ -3161,7 +3021,6 @@
           <t>علیرضا معینی</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/89361/user/icon/adaptable/f1?rev=1</t>
@@ -3177,7 +3036,6 @@
           <t>عمران محمدی کلیدسر</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/89924/user/icon/adaptable/f1?rev=1</t>
@@ -3193,7 +3051,6 @@
           <t>سینا مختاری دزکی</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/90119/user/icon/adaptable/f1?rev=126128358</t>
@@ -3209,7 +3066,6 @@
           <t>میلاد شمسی</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/90176/user/icon/adaptable/f1?rev=1</t>
@@ -3222,10 +3078,9 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>حسين علي جعفري</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
+          <t>حسین علی جعفری</t>
+        </is>
+      </c>
       <c r="C169" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/90281/user/icon/adaptable/f1?rev=1</t>
@@ -3241,7 +3096,6 @@
           <t>حسن صادقی نائینی</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/90393/user/icon/adaptable/f1?rev=110061414</t>
@@ -3257,7 +3111,6 @@
           <t>بیژن محمدی</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/90659/user/icon/adaptable/f1?rev=1</t>
@@ -3273,7 +3126,6 @@
           <t>احد قائمی</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/90960/user/icon/adaptable/f1?rev=1</t>
@@ -3289,7 +3141,6 @@
           <t>علیرضا زارع خورمیزی</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/105634/user/icon/adaptable/f1?rev=114136032</t>
@@ -3305,7 +3156,6 @@
           <t>مسعود دهمرده</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/105659/user/icon/adaptable/f1?rev=1</t>
@@ -3321,7 +3171,6 @@
           <t>سید مرتضی مسعود پناه</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/105675/user/icon/adaptable/f1?rev=1</t>
@@ -3357,7 +3206,6 @@
           <t>محمدعلی شفیعا</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/105695/user/icon/adaptable/f1?rev=1</t>
@@ -3370,10 +3218,9 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>شقايق شعباني</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
+          <t>شقایق شعبانی</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106093/user/icon/adaptable/f1?rev=1</t>
@@ -3389,7 +3236,6 @@
           <t>سعیده افهامی</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106120/user/icon/adaptable/f1?rev=1</t>
@@ -3405,7 +3251,6 @@
           <t>مرضیه اکبری جعفرآبادی</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106121/user/icon/adaptable/f1?rev=1</t>
@@ -3421,7 +3266,6 @@
           <t>سعید شوال پور آرانی</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106669/user/icon/adaptable/f1?rev=1</t>
@@ -3437,7 +3281,6 @@
           <t>سلمان ابراهیمی نژاد رفسنجانی</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106696/user/icon/adaptable/f1?rev=1</t>
@@ -3453,7 +3296,6 @@
           <t>میر سامان پیشوائی</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106759/user/icon/adaptable/f1?rev=1</t>
@@ -3469,7 +3311,6 @@
           <t>مهدی غضنفری</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/106981/user/icon/adaptable/f1?rev=1</t>
@@ -3485,7 +3326,6 @@
           <t>منصور شیروانی</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/107116/user/icon/adaptable/f1?rev=1</t>
@@ -3501,7 +3341,6 @@
           <t>علیرضا علی احمدی جشفقانی</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/107301/user/icon/adaptable/f1?rev=1</t>
@@ -3517,7 +3356,6 @@
           <t>علیرضا طلوع کیان</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/107328/user/icon/adaptable/f1?rev=1</t>
@@ -3533,7 +3371,6 @@
           <t>فرشاد غلامی</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/107730/user/icon/adaptable/f1?rev=1</t>
@@ -3549,7 +3386,6 @@
           <t>مهری ایزانلو</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/108009/user/icon/adaptable/f1?rev=1</t>
@@ -3565,7 +3401,6 @@
           <t>مهدی مقیمی</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/108116/user/icon/adaptable/f1?rev=1</t>
@@ -3581,7 +3416,6 @@
           <t>میر سعید صفی زاده</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/108117/user/icon/adaptable/f1?rev=1</t>
@@ -3617,7 +3451,6 @@
           <t>عباس عزیزجلالی</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/108149/user/icon/adaptable/f1?rev=1</t>
@@ -3633,7 +3466,6 @@
           <t>نرجس راحمی</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/120794/user/icon/adaptable/f1?rev=129916062</t>
@@ -3649,7 +3481,6 @@
           <t>مهدی اقبالی</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/124346/user/icon/adaptable/f1?rev=111477862</t>
@@ -3662,10 +3493,9 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>نازلي رونق ششكلاني</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
+          <t>نازلی رونق ششکلانی</t>
+        </is>
+      </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/124390/user/icon/adaptable/f1?rev=1</t>
@@ -3681,7 +3511,6 @@
           <t>مهدی رفعتی فرد</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/124426/user/icon/adaptable/f1?rev=1</t>
@@ -3697,7 +3526,6 @@
           <t>مجتبی استوار</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/124477/user/icon/adaptable/f1?rev=1</t>
@@ -3713,7 +3541,6 @@
           <t>مراد شادفر</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/124532/user/icon/adaptable/f1?rev=1</t>
@@ -3729,7 +3556,6 @@
           <t>احمد همایونی</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/124600/user/icon/adaptable/f1?rev=1</t>
@@ -3745,7 +3571,6 @@
           <t>سیدسینا ثمره موسوی</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/126963/user/icon/adaptable/f1?rev=1</t>
@@ -3761,7 +3586,6 @@
           <t>سیدمهدی عطیفه کمال ابادفراهان</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/126981/user/icon/adaptable/f1?rev=1</t>
@@ -3777,7 +3601,6 @@
           <t>تورج محمدی</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127405/user/icon/adaptable/f1?rev=1</t>
@@ -3813,7 +3636,6 @@
           <t>حمید صیاد</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127487/user/icon/adaptable/f1?rev=1</t>
@@ -3829,7 +3651,6 @@
           <t>وحید نیری</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127545/user/icon/adaptable/f1?rev=111661175</t>
@@ -3845,7 +3666,6 @@
           <t>صدیقه شریفی</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127599/user/icon/adaptable/f1?rev=1</t>
@@ -3861,7 +3681,6 @@
           <t>احسان علی محمدی</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127625/user/icon/adaptable/f1?rev=111137324</t>
@@ -3877,7 +3696,6 @@
           <t>مهرداد نوری</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127720/user/icon/adaptable/f1?rev=1</t>
@@ -3893,7 +3711,6 @@
           <t>مهیار مدنی اصفهانی</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127877/user/icon/adaptable/f1?rev=1</t>
@@ -3906,10 +3723,9 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>اميرحسين سبحاني</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
+          <t>امیرحسین سبحانی</t>
+        </is>
+      </c>
       <c r="C211" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/127997/user/icon/adaptable/f1?rev=1</t>
@@ -3925,7 +3741,6 @@
           <t>نرگس ناصحی گوگجه</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128253/user/icon/adaptable/f1?rev=1</t>
@@ -3938,10 +3753,9 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>مهندس زهره رحيمي</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
+          <t>مهندس زهره رحیمی</t>
+        </is>
+      </c>
       <c r="C213" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128280/user/icon/adaptable/f1?rev=1</t>
@@ -3957,7 +3771,6 @@
           <t>فرشته نعیم پور</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128412/user/icon/adaptable/f1?rev=1</t>
@@ -3973,7 +3786,6 @@
           <t>مجتبی فاضلی نیا</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128470/user/icon/adaptable/f1?rev=1</t>
@@ -3989,7 +3801,6 @@
           <t>نسیم رحمانی ایوریق</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128526/user/icon/adaptable/f1?rev=1</t>
@@ -4005,7 +3816,6 @@
           <t>سید حسین موسوی</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128603/user/icon/adaptable/f1?rev=110126598</t>
@@ -4021,7 +3831,6 @@
           <t>شبنم یزدانی</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128628/user/icon/adaptable/f1?rev=111182908</t>
@@ -4037,7 +3846,6 @@
           <t>غلام حسین خالقی</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128728/user/icon/adaptable/f1?rev=1</t>
@@ -4050,10 +3858,9 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>دکتر ابوالفضل اشعريون</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr"/>
+          <t>دکتر ابوالفضل اشعریون</t>
+        </is>
+      </c>
       <c r="C220" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128743/user/icon/adaptable/f1?rev=1</t>
@@ -4069,7 +3876,6 @@
           <t>رامین هاشمی</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128747/user/icon/adaptable/f1?rev=1</t>
@@ -4085,7 +3891,6 @@
           <t>مازیار زرعی چیان</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/128993/user/icon/adaptable/f1?rev=111378217</t>
@@ -4098,10 +3903,9 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>حسين شاطري</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
+          <t>حسین شاطری</t>
+        </is>
+      </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129034/user/icon/adaptable/f1?rev=1</t>
@@ -4117,7 +3921,6 @@
           <t>علی صدر</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129200/user/icon/adaptable/f1?rev=1</t>
@@ -4133,7 +3936,6 @@
           <t>بهروز مینایی بیدگلی</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129274/user/icon/adaptable/f1?rev=1</t>
@@ -4149,7 +3951,6 @@
           <t>نوروزمحمد نوری</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129356/user/icon/adaptable/f1?rev=1</t>
@@ -4165,7 +3966,6 @@
           <t>میلاد سلیمی بنی</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129472/user/icon/adaptable/f1?rev=1</t>
@@ -4181,7 +3981,6 @@
           <t>اصغر محمدمرادی</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129558/user/icon/adaptable/f1?rev=1</t>
@@ -4194,10 +3993,9 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>عميد مقصودي</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
+          <t>عمید مقصودی</t>
+        </is>
+      </c>
       <c r="C229" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129564/user/icon/adaptable/f1?rev=1</t>
@@ -4230,10 +4028,9 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>مهدي كريم پور</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
+          <t>مهدی کریم پور</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129593/user/icon/adaptable/f1?rev=1</t>
@@ -4269,7 +4066,6 @@
           <t>مهدی فاضلی</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129662/user/icon/adaptable/f1?rev=1</t>
@@ -4285,7 +4081,6 @@
           <t>روح الله طالبی</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/129668/user/icon/adaptable/f1?rev=1</t>
@@ -4301,7 +4096,6 @@
           <t>سمیه کاشی</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/144746/user/icon/adaptable/f1?rev=1</t>
@@ -4317,7 +4111,6 @@
           <t>حمید رضا نور علی زاده</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/145846/user/icon/adaptable/f1?rev=120803865</t>
@@ -4333,7 +4126,6 @@
           <t>مهدی اسماعیلزاده</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/145898/user/icon/adaptable/f1?rev=1</t>
@@ -4349,7 +4141,6 @@
           <t>ملودی خادم ثامنی</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146420/user/icon/adaptable/f1?rev=110077950</t>
@@ -4365,7 +4156,6 @@
           <t>هیوا صوفی کریمی</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146699/user/icon/adaptable/f1?rev=1</t>
@@ -4381,7 +4171,6 @@
           <t>رسول نورالسنا</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146794/user/icon/adaptable/f1?rev=1</t>
@@ -4397,7 +4186,6 @@
           <t>علی اصغر داودابادی فراهانی</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146856/user/icon/adaptable/f1?rev=1</t>
@@ -4413,7 +4201,6 @@
           <t>حسین سرپولکی</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146982/user/icon/adaptable/f1?rev=1</t>
@@ -4429,7 +4216,6 @@
           <t>ابراهیم توفیقی نیاکی</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146984/user/icon/adaptable/f1?rev=1</t>
@@ -4445,7 +4231,6 @@
           <t>اصغر نصر</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/146993/user/icon/adaptable/f1?rev=1</t>
@@ -4461,7 +4246,6 @@
           <t>پیمان قشقایی نژاد</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147298/user/icon/adaptable/f1?rev=1</t>
@@ -4477,7 +4261,6 @@
           <t>محمد رضا محبی</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147320/user/icon/adaptable/f1?rev=1</t>
@@ -4493,7 +4276,6 @@
           <t>سید مرتضی نقیب</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147335/user/icon/adaptable/f1?rev=1</t>
@@ -4506,10 +4288,9 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>نرجس تقي زاده رهقي</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
+          <t>نرجس تقی زاده رهقی</t>
+        </is>
+      </c>
       <c r="C248" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147387/user/icon/adaptable/f1?rev=1</t>
@@ -4525,7 +4306,6 @@
           <t>رضوان رضایی</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147575/user/icon/adaptable/f1?rev=1</t>
@@ -4541,7 +4321,6 @@
           <t>ایمان فرستاده</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147617/user/icon/adaptable/f1?rev=1</t>
@@ -4557,7 +4336,6 @@
           <t>جابر ممقانیان</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147695/user/icon/adaptable/f1?rev=1</t>
@@ -4573,7 +4351,6 @@
           <t>مسعود باباخانی</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147770/user/icon/adaptable/f1?rev=1</t>
@@ -4589,7 +4366,6 @@
           <t>ابوالفضل احمدی</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147804/user/icon/adaptable/f1?rev=1</t>
@@ -4605,7 +4381,6 @@
           <t>روح اله احمدی</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/147929/user/icon/adaptable/f1?rev=1</t>
@@ -4621,7 +4396,6 @@
           <t>علی خیرابی</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148018/user/icon/adaptable/f1?rev=113326232</t>
@@ -4654,10 +4428,9 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>الهام توسلي پور</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr"/>
+          <t>الهام توسلی پور</t>
+        </is>
+      </c>
       <c r="C257" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148162/user/icon/adaptable/f1?rev=1</t>
@@ -4673,7 +4446,6 @@
           <t>دکتر حامی تورجی زاده</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148166/user/icon/adaptable/f1?rev=1</t>
@@ -4729,7 +4501,6 @@
           <t>دکتر مجید ایلچی</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148212/user/icon/adaptable/f1?rev=1</t>
@@ -4745,7 +4516,6 @@
           <t>ارمان سان احمدی</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148249/user/icon/adaptable/f1?rev=121054620</t>
@@ -4761,7 +4531,6 @@
           <t>مهراد حنافروش</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148269/user/icon/adaptable/f1?rev=1</t>
@@ -4777,7 +4546,6 @@
           <t>فرشید محمودی تبار</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148471/user/icon/adaptable/f1?rev=1</t>
@@ -4790,10 +4558,9 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>محمد شادنام زربيل</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr"/>
+          <t>محمد شادنام زربیل</t>
+        </is>
+      </c>
       <c r="C265" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/148524/user/icon/adaptable/f1?rev=1</t>
@@ -4809,7 +4576,6 @@
           <t>مرتضی ذاکری نصرابادی</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/164259/user/icon/adaptable/f1?rev=111950257</t>
@@ -4842,10 +4608,9 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>بهادر بهرامي</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr"/>
+          <t>بهادر بهرامی</t>
+        </is>
+      </c>
       <c r="C268" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/164361/user/icon/adaptable/f1?rev=1</t>
@@ -4861,7 +4626,6 @@
           <t>سیدسپهر موسوی</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/164614/user/icon/adaptable/f1?rev=1</t>
@@ -4877,7 +4641,6 @@
           <t>سیدعلی نیک نام</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/164858/user/icon/adaptable/f1?rev=110111589</t>
@@ -4893,7 +4656,6 @@
           <t>محمدرضا خسروی</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/164921/user/icon/adaptable/f1?rev=1</t>
@@ -4906,10 +4668,9 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>دکتر عبدالرضا رحمتي</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr"/>
+          <t>دکتر عبدالرضا رحمتی</t>
+        </is>
+      </c>
       <c r="C272" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165014/user/icon/adaptable/f1?rev=1</t>
@@ -4925,7 +4686,6 @@
           <t>اکبر دهقان نژاد</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165015/user/icon/adaptable/f1?rev=111631550</t>
@@ -4941,7 +4701,6 @@
           <t>امید محمدیان</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr"/>
       <c r="C274" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165017/user/icon/adaptable/f1?rev=120990236</t>
@@ -4957,7 +4716,6 @@
           <t>وحید گرشاسبی</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165018/user/icon/adaptable/f1?rev=1</t>
@@ -4993,7 +4751,6 @@
           <t>علیرضا سعیدی عزیز کندی</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165023/user/icon/adaptable/f1?rev=1</t>
@@ -5006,10 +4763,9 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>دکتر رضا برنگي</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr"/>
+          <t>دکتر رضا برنگی</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165024/user/icon/adaptable/f1?rev=1</t>
@@ -5025,7 +4781,6 @@
           <t>علی غفاری نژاد</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165027/user/icon/adaptable/f1?rev=1</t>
@@ -5041,7 +4796,6 @@
           <t>محمدرضا ابوطالبی</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr"/>
       <c r="C280" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165029/user/icon/adaptable/f1?rev=1</t>
@@ -5057,7 +4811,6 @@
           <t>معصومه امیربنده</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165036/user/icon/adaptable/f1?rev=1</t>
@@ -5073,7 +4826,6 @@
           <t>علی اکبر شیرزادی جاوید</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165042/user/icon/adaptable/f1?rev=1</t>
@@ -5089,7 +4841,6 @@
           <t>سیدمهدی علوی املشی</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165054/user/icon/adaptable/f1?rev=1</t>
@@ -5105,7 +4856,6 @@
           <t>مهندس محمد حسن خانف</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165056/user/icon/adaptable/f1?rev=1</t>
@@ -5121,7 +4871,6 @@
           <t>ابراهیم تیموری</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165059/user/icon/adaptable/f1?rev=1</t>
@@ -5157,7 +4906,6 @@
           <t>نوراله کثیری بیدهندی</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165091/user/icon/adaptable/f1?rev=1</t>
@@ -5173,7 +4921,6 @@
           <t>محمودمهرداد شکریه</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165144/user/icon/adaptable/f1?rev=1</t>
@@ -5189,7 +4936,6 @@
           <t>جلیل رشیدی نیا</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165249/user/icon/adaptable/f1?rev=1</t>
@@ -5205,7 +4951,6 @@
           <t>محمدرضا جعفرفرد</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr"/>
       <c r="C290" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165252/user/icon/adaptable/f1?rev=110092517</t>
@@ -5221,7 +4966,6 @@
           <t>ژاله حبیبی دهکاء</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165256/user/icon/adaptable/f1?rev=1</t>
@@ -5237,7 +4981,6 @@
           <t>احمد میرآبادی</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165368/user/icon/adaptable/f1?rev=111657897</t>
@@ -5253,7 +4996,6 @@
           <t>فرانک منطقی</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165372/user/icon/adaptable/f1?rev=1</t>
@@ -5269,7 +5011,6 @@
           <t>سیدسجاد میرولد</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165389/user/icon/adaptable/f1?rev=110058961</t>
@@ -5285,7 +5026,6 @@
           <t>علی اکبر مسیحیان پور</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165485/user/icon/adaptable/f1?rev=1</t>
@@ -5301,7 +5041,6 @@
           <t>محمود لشگری</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165492/user/icon/adaptable/f1?rev=120973548</t>
@@ -5317,7 +5056,6 @@
           <t>شهین واعظی</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165713/user/icon/adaptable/f1?rev=1</t>
@@ -5330,10 +5068,9 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>مهندس منوچهر خاصي</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr"/>
+          <t>مهندس منوچهر خاصی</t>
+        </is>
+      </c>
       <c r="C298" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/165839/user/icon/adaptable/f1?rev=1</t>
@@ -5389,7 +5126,6 @@
           <t>عباس ترکاشوند</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/166058/user/icon/adaptable/f1?rev=1</t>
@@ -5405,7 +5141,6 @@
           <t>ایوب شکوری</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/166071/user/icon/adaptable/f1?rev=1</t>
@@ -5421,7 +5156,6 @@
           <t>دکتر حسین غیاثی نژاد</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/166786/user/icon/adaptable/f1?rev=110129746</t>
@@ -5437,7 +5171,6 @@
           <t>سید امیر غفاری</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/166889/user/icon/adaptable/f1?rev=110077566</t>
@@ -5450,10 +5183,9 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>سميه جمالي شخلوي</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr"/>
+          <t>سمیه جمالی شخلوی</t>
+        </is>
+      </c>
       <c r="C305" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167010/user/icon/adaptable/f1?rev=1</t>
@@ -5469,7 +5201,6 @@
           <t>ناصر شابختی</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167022/user/icon/adaptable/f1?rev=110057163</t>
@@ -5485,7 +5216,6 @@
           <t>حمید کریمی</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167029/user/icon/adaptable/f1?rev=1</t>
@@ -5501,7 +5231,6 @@
           <t>پریا دربانی</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167038/user/icon/adaptable/f1?rev=1</t>
@@ -5517,7 +5246,6 @@
           <t>امیرسامان خیرخواه قه</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -5533,7 +5261,6 @@
           <t>جواد یاوند حسنی</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167148/user/icon/adaptable/f1?rev=127106954</t>
@@ -5549,7 +5276,6 @@
           <t>مجتبی ثقفی نیا</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167259/user/icon/adaptable/f1?rev=1</t>
@@ -5565,7 +5291,6 @@
           <t>مریم تاج آبادی</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167274/user/icon/adaptable/f1?rev=110065948</t>
@@ -5578,10 +5303,9 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>حميده جعفري</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr"/>
+          <t>حمیده جعفری</t>
+        </is>
+      </c>
       <c r="C313" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/167802/user/icon/adaptable/f1?rev=1</t>
@@ -5617,7 +5341,6 @@
           <t>سید فرید قنادپور</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/168030/user/icon/adaptable/f1?rev=1</t>
@@ -5633,7 +5356,6 @@
           <t>شادی مشیدی</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/176937/user/icon/adaptable/f1?rev=1</t>
@@ -5649,7 +5371,6 @@
           <t>محمد فرخی</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183156/user/icon/adaptable/f1?rev=1</t>
@@ -5665,7 +5386,6 @@
           <t>وحید بروجردیان</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183163/user/icon/adaptable/f1?rev=112074045</t>
@@ -5681,7 +5401,6 @@
           <t>حسین علیزاده</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183172/user/icon/adaptable/f1?rev=1</t>
@@ -5697,7 +5416,6 @@
           <t>فروغ عاملی</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183174/user/icon/adaptable/f1?rev=110063426</t>
@@ -5713,7 +5431,6 @@
           <t>شاهرخ شاه حسینی</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183180/user/icon/adaptable/f1?rev=120949301</t>
@@ -5729,7 +5446,6 @@
           <t>فرید توتونچیان</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183184/user/icon/adaptable/f1?rev=1</t>
@@ -5745,7 +5461,6 @@
           <t>سعید رستگاری</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183204/user/icon/adaptable/f1?rev=1</t>
@@ -5761,7 +5476,6 @@
           <t>پدرام قادری</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183217/user/icon/adaptable/f1?rev=1</t>
@@ -5777,7 +5491,6 @@
           <t>سید ادیب ابریشمی فر</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr"/>
       <c r="C325" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183233/user/icon/adaptable/f1?rev=111384647</t>
@@ -5790,10 +5503,9 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>دکتر حسين بيسادي</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr"/>
+          <t>دکتر حسین بیسادی</t>
+        </is>
+      </c>
       <c r="C326" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/183352/user/icon/adaptable/f1?rev=1</t>
@@ -5809,7 +5521,6 @@
           <t>وحید صفری فرد</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/184207/user/icon/adaptable/f1?rev=110056743</t>
@@ -5825,7 +5536,6 @@
           <t>سید وحید ازهری</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/184370/user/icon/adaptable/f1?rev=1</t>
@@ -5838,10 +5548,9 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ساغر فولادي ماهاني</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr"/>
+          <t>ساغر فولادی ماهانی</t>
+        </is>
+      </c>
       <c r="C329" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/184425/user/icon/adaptable/f1?rev=1</t>
@@ -5857,7 +5566,6 @@
           <t>مریم کامران</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/184430/user/icon/adaptable/f1?rev=1</t>
@@ -5873,7 +5581,6 @@
           <t>علیرضا جلیلیان</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/184457/user/icon/adaptable/f1?rev=1</t>
@@ -5889,7 +5596,6 @@
           <t>سوسن روشن ضمیر</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/184689/user/icon/adaptable/f1?rev=1</t>
@@ -5905,7 +5611,6 @@
           <t>امیرحسین دوایی مرکزی</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/185083/user/icon/adaptable/f1?rev=1</t>
@@ -5921,7 +5626,6 @@
           <t>محسن صابرماهانی</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/185165/user/icon/adaptable/f1?rev=1</t>
@@ -5937,7 +5641,6 @@
           <t>محسن بابامرادی</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/185211/user/icon/adaptable/f1?rev=1</t>
@@ -5973,7 +5676,6 @@
           <t>حبیب اله ملاطفی</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/185707/user/icon/adaptable/f1?rev=1</t>
@@ -5989,7 +5691,6 @@
           <t>مسعود هادیان دهکردی</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/185959/user/icon/adaptable/f1?rev=1</t>
@@ -6005,7 +5706,6 @@
           <t>محمد مصطفوی</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186003/user/icon/adaptable/f1?rev=1</t>
@@ -6021,7 +5721,6 @@
           <t>دکتر محمود ملاباشی</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186045/user/icon/adaptable/f1?rev=1</t>
@@ -6037,7 +5736,6 @@
           <t>زهرا رشیدی</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186092/user/icon/adaptable/f1?rev=1</t>
@@ -6053,7 +5751,6 @@
           <t>کریم محمدی</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186111/user/icon/adaptable/f1?rev=1</t>
@@ -6069,7 +5766,6 @@
           <t>نوید ملارمضانی</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186189/user/icon/adaptable/f1?rev=1</t>
@@ -6085,7 +5781,6 @@
           <t>مریم سادات هاشمی نسب</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186191/user/icon/adaptable/f1?rev=1</t>
@@ -6101,7 +5796,6 @@
           <t>محمودرضا چنگیزیان</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186232/user/icon/adaptable/f1?rev=1</t>
@@ -6117,7 +5811,6 @@
           <t>امین نوبهاری</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186252/user/icon/adaptable/f1?rev=1</t>
@@ -6133,7 +5826,6 @@
           <t>رضا گلشن خواص</t>
         </is>
       </c>
-      <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/186281/user/icon/adaptable/f1?rev=110107627</t>
@@ -6149,7 +5841,6 @@
           <t>رسول گودرزی</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -6165,7 +5856,6 @@
           <t>رضا سعادتی</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202227/user/icon/adaptable/f1?rev=1</t>
@@ -6181,7 +5871,6 @@
           <t>سیدجواد امامی</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202240/user/icon/adaptable/f1?rev=111390425</t>
@@ -6197,7 +5886,6 @@
           <t>حسین حیدری</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202274/user/icon/adaptable/f1?rev=1</t>
@@ -6213,7 +5901,6 @@
           <t>علی نکونام</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202308/user/icon/adaptable/f1?rev=1</t>
@@ -6229,7 +5916,6 @@
           <t>سیدحسن صدیقی</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202370/user/icon/adaptable/f1?rev=1</t>
@@ -6245,7 +5931,6 @@
           <t>ساسان آسیایی</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202397/user/icon/adaptable/f1?rev=1</t>
@@ -6258,10 +5943,9 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>امين ايماني</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr"/>
+          <t>امین ایمانی</t>
+        </is>
+      </c>
       <c r="C355" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202404/user/icon/adaptable/f1?rev=1</t>
@@ -6277,7 +5961,6 @@
           <t>جمشید فریبرز</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr"/>
       <c r="C356" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202414/user/icon/adaptable/f1?rev=1</t>
@@ -6293,7 +5976,6 @@
           <t>حمیدرضا رازقی</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202472/user/icon/adaptable/f1?rev=1</t>
@@ -6309,7 +5991,6 @@
           <t>محمودرضا شریفیان</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr"/>
       <c r="C358" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202511/user/icon/adaptable/f1?rev=1</t>
@@ -6325,7 +6006,6 @@
           <t>میلاد طهماسبی</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr"/>
       <c r="C359" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202546/user/icon/adaptable/f1?rev=1</t>
@@ -6341,7 +6021,6 @@
           <t>فاطمه دباغ کاشانی</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202613/user/icon/adaptable/f1?rev=1</t>
@@ -6357,7 +6036,6 @@
           <t>شعله گل محمدی نژادی</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202614/user/icon/adaptable/f1?rev=1</t>
@@ -6373,7 +6051,6 @@
           <t>حامد عابدینی</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/202775/user/icon/adaptable/f1?rev=110062794</t>
@@ -6386,10 +6063,9 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>مسعود يوسفي</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr"/>
+          <t>مسعود یوسفی</t>
+        </is>
+      </c>
       <c r="C363" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/203005/user/icon/adaptable/f1?rev=1</t>
@@ -6405,7 +6081,6 @@
           <t>محمدرضا رسولی</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/203061/user/icon/adaptable/f1?rev=110072894</t>
@@ -6421,7 +6096,6 @@
           <t>مسعود نصر آزادانی</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/203131/user/icon/adaptable/f1?rev=1</t>
@@ -6434,10 +6108,9 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>دکتر عليرضا محمدشهري</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr"/>
+          <t>دکتر علیرضا محمدشهری</t>
+        </is>
+      </c>
       <c r="C366" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/203257/user/icon/adaptable/f1?rev=1</t>
@@ -6453,7 +6126,6 @@
           <t>غلامعلی نصر</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/203306/user/icon/adaptable/f1?rev=1</t>
@@ -6469,7 +6141,6 @@
           <t>محسن عبدی بجندی</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/204044/user/icon/adaptable/f1?rev=1</t>
@@ -6485,7 +6156,6 @@
           <t>علی قاسمیان مقدم</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/204549/user/icon/adaptable/f1?rev=110076626</t>
@@ -6501,7 +6171,6 @@
           <t>مهدی عبدالحمید</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/204589/user/icon/adaptable/f1?rev=110066032</t>
@@ -6514,10 +6183,9 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>مهندس رحمان حميدي</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr"/>
+          <t>مهندس رحمان حمیدی</t>
+        </is>
+      </c>
       <c r="C371" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/205070/user/icon/adaptable/f1?rev=1</t>
@@ -6533,7 +6201,6 @@
           <t>علی اسمعیلی</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/205229/user/icon/adaptable/f1?rev=1</t>
@@ -6549,7 +6216,6 @@
           <t>علی حسینخانی</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr"/>
       <c r="C373" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/205579/user/icon/adaptable/f1?rev=1</t>
@@ -6565,7 +6231,6 @@
           <t>مهشید قربانیان</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr"/>
       <c r="C374" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206310/user/icon/adaptable/f1?rev=111375519</t>
@@ -6601,7 +6266,6 @@
           <t>سمانه قندهاریون</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr"/>
       <c r="C376" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206418/user/icon/adaptable/f1?rev=110058329</t>
@@ -6617,7 +6281,6 @@
           <t>محمد جواد اشرفی</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206427/user/icon/adaptable/f1?rev=110071709</t>
@@ -6633,7 +6296,6 @@
           <t>عیسی زارع پور</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206460/user/icon/adaptable/f1?rev=110078064</t>
@@ -6646,10 +6308,9 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>حامد عبادي</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr"/>
+          <t>حامد عبادی</t>
+        </is>
+      </c>
       <c r="C379" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206466/user/icon/adaptable/f1?rev=1</t>
@@ -6665,7 +6326,6 @@
           <t>سمانه جلیلی صدراباد</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206474/user/icon/adaptable/f1?rev=110058681</t>
@@ -6681,7 +6341,6 @@
           <t>صابر یحیی پور</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -6697,7 +6356,6 @@
           <t>امیر ذاکری</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/206516/user/icon/adaptable/f1?rev=110082125</t>
@@ -6713,7 +6371,6 @@
           <t>بهمن قربانی</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/223144/user/icon/adaptable/f1?rev=110072137</t>
@@ -6729,7 +6386,6 @@
           <t>پریسا حجازی</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/223266/user/icon/adaptable/f1?rev=110069174</t>
@@ -6745,7 +6401,6 @@
           <t>سجاد صادقی</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/224345/user/icon/adaptable/f1?rev=110055705</t>
@@ -6781,7 +6436,6 @@
           <t>روزبه اسد</t>
         </is>
       </c>
-      <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/225263/user/icon/adaptable/f1?rev=111308294</t>
@@ -6797,7 +6451,6 @@
           <t>مطهره سعادت پور</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/225483/user/icon/adaptable/f1?rev=110057712</t>
@@ -6810,10 +6463,9 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>حميدرضا شيرازي</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr"/>
+          <t>حمیدرضا شیرازی</t>
+        </is>
+      </c>
       <c r="C389" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/225524/user/icon/adaptable/f1?rev=111138203</t>
@@ -6829,7 +6481,6 @@
           <t>مهدی کساییان نایینی</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/225997/user/icon/adaptable/f1?rev=110092632</t>
@@ -6845,7 +6496,6 @@
           <t>حامد سعیدی گوگرچین</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr"/>
       <c r="C391" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/226147/user/icon/adaptable/f1?rev=110057520</t>
@@ -6861,7 +6511,6 @@
           <t>هانیه صنایعیان</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr"/>
       <c r="C392" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/227659/user/icon/adaptable/f1?rev=110083585</t>
@@ -6897,7 +6546,6 @@
           <t>سیدمجید هاشمیان زاده</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr"/>
       <c r="C394" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/245731/user/icon/adaptable/f1?rev=110091371</t>
@@ -6913,7 +6561,6 @@
           <t>مهران کریمپور</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr"/>
       <c r="C395" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/245788/user/icon/adaptable/f1?rev=110060398</t>
@@ -6929,7 +6576,6 @@
           <t>ستار میرزاکوچکی</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/245841/user/icon/adaptable/f1?rev=110069750</t>
@@ -6945,7 +6591,6 @@
           <t>مصطفی جعفری</t>
         </is>
       </c>
-      <c r="B397" t="inlineStr"/>
       <c r="C397" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/245894/user/icon/adaptable/f1?rev=110142372</t>
@@ -6961,7 +6606,6 @@
           <t>مهدی خاک زند</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/245932/user/icon/adaptable/f1?rev=110055639</t>
@@ -6977,7 +6621,6 @@
           <t>میثم فرج الهی</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/246198/user/icon/adaptable/f1?rev=110068428</t>
@@ -7013,7 +6656,6 @@
           <t>مهدی حمزه نژاد</t>
         </is>
       </c>
-      <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/246351/user/icon/adaptable/f1?rev=110088163</t>
@@ -7029,7 +6671,6 @@
           <t>امید نیکان</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/247801/user/icon/adaptable/f1?rev=121003773</t>
@@ -7045,7 +6686,6 @@
           <t>حامد رضاپور</t>
         </is>
       </c>
-      <c r="B403" t="inlineStr"/>
       <c r="C403" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/247952/user/icon/adaptable/f1?rev=126110703</t>
@@ -7061,7 +6701,6 @@
           <t>مجید روشنائی</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/248363/user/icon/adaptable/f1?rev=120952579</t>
@@ -7077,7 +6716,6 @@
           <t>فاطمه السادات ابادیان زاده</t>
         </is>
       </c>
-      <c r="B405" t="inlineStr"/>
       <c r="C405" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/248588/user/icon/adaptable/f1?rev=130098636</t>
@@ -7093,7 +6731,6 @@
           <t>بابک زارع رمشتی</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr"/>
       <c r="C406" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/248677/user/icon/adaptable/f1?rev=110068048</t>
@@ -7109,7 +6746,6 @@
           <t>روح الدین میری</t>
         </is>
       </c>
-      <c r="B407" t="inlineStr"/>
       <c r="C407" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/248790/user/icon/adaptable/f1?rev=110055765</t>
@@ -7125,7 +6761,6 @@
           <t>شاهرخ فرهمند</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr"/>
       <c r="C408" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/249083/user/icon/adaptable/f1?rev=110065876</t>
@@ -7141,7 +6776,6 @@
           <t>ندا عبودزاده</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr"/>
       <c r="C409" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/249330/user/icon/adaptable/f1?rev=110128862</t>
@@ -7157,7 +6791,6 @@
           <t>مهدی علائیان</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr"/>
       <c r="C410" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/250614/user/icon/adaptable/f1?rev=110067700</t>
@@ -7193,7 +6826,6 @@
           <t>علی آذری بنی</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr"/>
       <c r="C412" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/252009/user/icon/adaptable/f1?rev=111567600</t>
@@ -7209,7 +6841,6 @@
           <t>معصومه احمدی</t>
         </is>
       </c>
-      <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/252656/user/icon/adaptable/f1?rev=128868832</t>
@@ -7225,7 +6856,6 @@
           <t>حمیدرضا جهانگیری</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/252953/user/icon/adaptable/f1?rev=110056349</t>
@@ -7241,7 +6871,6 @@
           <t>مهدیه حاجی اقراری</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/253098/user/icon/adaptable/f1?rev=117404676</t>
@@ -7277,7 +6906,6 @@
           <t>ابوذر غفاری</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/253791/user/icon/adaptable/f1?rev=110072515</t>
@@ -7293,7 +6921,6 @@
           <t>محمد طاهر پیله ور</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/253933/user/icon/adaptable/f1?rev=110077218</t>
@@ -7309,7 +6936,6 @@
           <t>مصطفی بهزادفر</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/254168/user/icon/adaptable/f1?rev=110076117</t>
@@ -7325,7 +6951,6 @@
           <t>دین محمد ایمانی</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/254723/user/icon/adaptable/f1?rev=110075255</t>
@@ -7361,7 +6986,6 @@
           <t>سید علیرضا نظام الحسینی عزآبادی</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr"/>
       <c r="C422" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/255297/user/icon/adaptable/f1?rev=110088145</t>
@@ -7377,7 +7001,6 @@
           <t>علیرضا اکبرزاده</t>
         </is>
       </c>
-      <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/255317/user/icon/adaptable/f1?rev=110078377</t>
@@ -7393,7 +7016,6 @@
           <t>منصور سلطانیه</t>
         </is>
       </c>
-      <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/256518/user/icon/adaptable/f1?rev=110074099</t>
@@ -7409,7 +7031,6 @@
           <t>کبری بیدوند</t>
         </is>
       </c>
-      <c r="B425" t="inlineStr"/>
       <c r="C425" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/256684/user/icon/adaptable/f1?rev=110988450</t>
@@ -7425,7 +7046,6 @@
           <t>کامران شهانقی</t>
         </is>
       </c>
-      <c r="B426" t="inlineStr"/>
       <c r="C426" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/256741/user/icon/adaptable/f1?rev=110082755</t>
@@ -7441,7 +7061,6 @@
           <t>محمد اخلاقی</t>
         </is>
       </c>
-      <c r="B427" t="inlineStr"/>
       <c r="C427" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/257506/user/icon/adaptable/f1?rev=110058146</t>
@@ -7457,7 +7076,6 @@
           <t>هاجر محمدزاده ثانی</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr"/>
       <c r="C428" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/257535/user/icon/adaptable/f1?rev=110144288</t>
@@ -7473,7 +7091,6 @@
           <t>الهام فتاحی</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr"/>
       <c r="C429" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/258375/user/icon/adaptable/f1?rev=129212035</t>
@@ -7489,7 +7106,6 @@
           <t>مهسا ضرابی الحسینی</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr"/>
       <c r="C430" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/258707/user/icon/adaptable/f1?rev=130264922</t>
@@ -7505,7 +7121,6 @@
           <t>سیامک سلمانی</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr"/>
       <c r="C431" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/259990/user/icon/adaptable/f1?rev=110096922</t>
@@ -7521,7 +7136,6 @@
           <t>فتح‌الله طاهری بهروز</t>
         </is>
       </c>
-      <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/262889/user/icon/adaptable/f1?rev=110069966</t>
@@ -7537,7 +7151,6 @@
           <t>مهران رضائی</t>
         </is>
       </c>
-      <c r="B433" t="inlineStr"/>
       <c r="C433" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/263121/user/icon/adaptable/f1?rev=110062921</t>
@@ -7553,7 +7166,6 @@
           <t>آرش پاکزاد</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -7569,7 +7181,6 @@
           <t>محمد عبدی پور</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -7585,7 +7196,6 @@
           <t>زینب پورانصاری</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr"/>
       <c r="C436" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/264395/user/icon/adaptable/f1?rev=110056158</t>
@@ -7601,7 +7211,6 @@
           <t>محمدتقی صالحی</t>
         </is>
       </c>
-      <c r="B437" t="inlineStr"/>
       <c r="C437" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/264417/user/icon/adaptable/f1?rev=111383289</t>
@@ -7617,7 +7226,6 @@
           <t>عبدالله امیرخانی شهرکی</t>
         </is>
       </c>
-      <c r="B438" t="inlineStr"/>
       <c r="C438" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/282487/user/icon/adaptable/f1?rev=110055615</t>
@@ -7633,7 +7241,6 @@
           <t>هاجر فلاحتی</t>
         </is>
       </c>
-      <c r="B439" t="inlineStr"/>
       <c r="C439" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/282576/user/icon/adaptable/f1?rev=110081065</t>
@@ -7649,7 +7256,6 @@
           <t>شهریار برادران شکوهی</t>
         </is>
       </c>
-      <c r="B440" t="inlineStr"/>
       <c r="C440" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283068/user/icon/adaptable/f1?rev=110057133</t>
@@ -7665,7 +7271,6 @@
           <t>امید وحیدی</t>
         </is>
       </c>
-      <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283079/user/icon/adaptable/f1?rev=110094662</t>
@@ -7681,7 +7286,6 @@
           <t>حجت قاسمی</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr"/>
       <c r="C442" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283082/user/icon/adaptable/f1?rev=110060815</t>
@@ -7697,7 +7301,6 @@
           <t>سیدحجت سبزپوشان</t>
         </is>
       </c>
-      <c r="B443" t="inlineStr"/>
       <c r="C443" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283090/user/icon/adaptable/f1?rev=110066662</t>
@@ -7713,7 +7316,6 @@
           <t>سید سعید فاضل</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283162/user/icon/adaptable/f1?rev=110073328</t>
@@ -7729,7 +7331,6 @@
           <t>صادق صادق زاده</t>
         </is>
       </c>
-      <c r="B445" t="inlineStr"/>
       <c r="C445" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283166/user/icon/adaptable/f1?rev=110191050</t>
@@ -7745,7 +7346,6 @@
           <t>احمدرضا شاه علی</t>
         </is>
       </c>
-      <c r="B446" t="inlineStr"/>
       <c r="C446" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283174/user/icon/adaptable/f1?rev=110078120</t>
@@ -7761,7 +7361,6 @@
           <t>بهنام داودی</t>
         </is>
       </c>
-      <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283264/user/icon/adaptable/f1?rev=110079789</t>
@@ -7777,7 +7376,6 @@
           <t>مجید ایلچی قزاآن</t>
         </is>
       </c>
-      <c r="B448" t="inlineStr"/>
       <c r="C448" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/283302/user/icon/adaptable/f1?rev=110059543</t>
@@ -7813,7 +7411,6 @@
           <t>فرشید فرزانه</t>
         </is>
       </c>
-      <c r="B450" t="inlineStr"/>
       <c r="C450" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/284269/user/icon/adaptable/f1?rev=111628327</t>
@@ -7829,7 +7426,6 @@
           <t>حسین فلاحتی</t>
         </is>
       </c>
-      <c r="B451" t="inlineStr"/>
       <c r="C451" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -7845,7 +7441,6 @@
           <t>عبدالحمید نقره کار</t>
         </is>
       </c>
-      <c r="B452" t="inlineStr"/>
       <c r="C452" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -7861,7 +7456,6 @@
           <t>ابوالفضل فلاحتی</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/286216/user/icon/adaptable/f1?rev=110072882</t>
@@ -7877,7 +7471,6 @@
           <t>محسن دهقانی تفتی</t>
         </is>
       </c>
-      <c r="B454" t="inlineStr"/>
       <c r="C454" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/287160/user/icon/adaptable/f1?rev=110148047</t>
@@ -7893,7 +7486,6 @@
           <t>امین اختیاری</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr"/>
       <c r="C455" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -7909,7 +7501,6 @@
           <t>ماندانا عادلی</t>
         </is>
       </c>
-      <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/287387/user/icon/adaptable/f1?rev=110068176</t>
@@ -7945,7 +7536,6 @@
           <t>مرضیه کرد</t>
         </is>
       </c>
-      <c r="B458" t="inlineStr"/>
       <c r="C458" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/288016/user/icon/adaptable/f1?rev=110140674</t>
@@ -7961,7 +7551,6 @@
           <t>دکتر سید حسین حسینی شکوه</t>
         </is>
       </c>
-      <c r="B459" t="inlineStr"/>
       <c r="C459" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -7977,7 +7566,6 @@
           <t>مجید حسین زاده</t>
         </is>
       </c>
-      <c r="B460" t="inlineStr"/>
       <c r="C460" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/288905/user/icon/adaptable/f1?rev=110057758</t>
@@ -7993,7 +7581,6 @@
           <t>هادی خرمی شاد</t>
         </is>
       </c>
-      <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/288906/user/icon/adaptable/f1?rev=110069048</t>
@@ -8009,7 +7596,6 @@
           <t>مریم حسنی زنوزی</t>
         </is>
       </c>
-      <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/289791/user/icon/adaptable/f1?rev=110074993</t>
@@ -8025,7 +7611,6 @@
           <t>محمد خلج امیرحسینی</t>
         </is>
       </c>
-      <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/290134/user/icon/adaptable/f1?rev=110074250</t>
@@ -8041,7 +7626,6 @@
           <t>پیمان کبیری</t>
         </is>
       </c>
-      <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/292052/user/icon/adaptable/f1?rev=110059744</t>
@@ -8057,7 +7641,6 @@
           <t>مصطفی معظمی</t>
         </is>
       </c>
-      <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -8073,7 +7656,6 @@
           <t>سهیل گنجه فر</t>
         </is>
       </c>
-      <c r="B466" t="inlineStr"/>
       <c r="C466" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/292575/user/icon/adaptable/f1?rev=119436706</t>
@@ -8089,7 +7671,6 @@
           <t>حبیب شاه نظری</t>
         </is>
       </c>
-      <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/292638/user/icon/adaptable/f1?rev=114753002</t>
@@ -8125,7 +7706,6 @@
           <t>محمدحجت وطن خواه</t>
         </is>
       </c>
-      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/293119/user/icon/adaptable/f1?rev=110075110</t>
@@ -8141,7 +7721,6 @@
           <t>محمدرضا شکوهیان راد</t>
         </is>
       </c>
-      <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -8157,7 +7736,6 @@
           <t>محمد امینی فارسانی</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/315995/user/icon/adaptable/f1?rev=110057819</t>
@@ -8173,7 +7751,6 @@
           <t>شکوفه نوروزی</t>
         </is>
       </c>
-      <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/316047/user/icon/adaptable/f1?rev=110058442</t>
@@ -8189,7 +7766,6 @@
           <t>سیدمحمدمهدی عبیری</t>
         </is>
       </c>
-      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/316099/user/icon/adaptable/f1?rev=126053019</t>
@@ -8205,7 +7781,6 @@
           <t>آسیه السادات کاظمی شیخ شبانی</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/316171/user/icon/adaptable/f1?rev=110065036</t>
@@ -8221,7 +7796,6 @@
           <t>آیت قره قانی</t>
         </is>
       </c>
-      <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/316791/user/icon/adaptable/f1?rev=110059922</t>
@@ -8237,7 +7811,6 @@
           <t>شکیب صادقی</t>
         </is>
       </c>
-      <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/317688/user/icon/adaptable/f1?rev=110076644</t>
@@ -8253,7 +7826,6 @@
           <t>حسین غفوری</t>
         </is>
       </c>
-      <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/319062/user/icon/adaptable/f1?rev=110083418</t>
@@ -8289,7 +7861,6 @@
           <t>محمد امین ثباتی</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/320286/user/icon/adaptable/f1?rev=110073971</t>
@@ -8305,7 +7876,6 @@
           <t>سجاد روشن روان</t>
         </is>
       </c>
-      <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/320440/user/icon/adaptable/f1?rev=110091616</t>
@@ -8321,7 +7891,6 @@
           <t>مرتضی ذوالفقاری</t>
         </is>
       </c>
-      <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/320731/user/icon/adaptable/f1?rev=110058120</t>
@@ -8337,7 +7906,6 @@
           <t>مجید رجبی</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr"/>
       <c r="C482" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/320982/user/icon/adaptable/f1?rev=110078413</t>
@@ -8353,7 +7921,6 @@
           <t>امیرمهدی حسینی منزه</t>
         </is>
       </c>
-      <c r="B483" t="inlineStr"/>
       <c r="C483" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/321496/user/icon/adaptable/f1?rev=110059958</t>
@@ -8369,7 +7936,6 @@
           <t>سمانه محمودی قاشقای</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/322550/user/icon/adaptable/f1?rev=110061137</t>
@@ -8385,7 +7951,6 @@
           <t>رضا نوروزبیگی</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/323518/user/icon/adaptable/f1?rev=110070759</t>
@@ -8401,7 +7966,6 @@
           <t>مریم صالحی</t>
         </is>
       </c>
-      <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/324849/user/icon/adaptable/f1?rev=110056671</t>
@@ -8417,7 +7981,6 @@
           <t>بابک امیری</t>
         </is>
       </c>
-      <c r="B487" t="inlineStr"/>
       <c r="C487" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/325480/user/icon/adaptable/f1?rev=111383967</t>
@@ -8433,7 +7996,6 @@
           <t>سیدمیعاد صالحی</t>
         </is>
       </c>
-      <c r="B488" t="inlineStr"/>
       <c r="C488" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/326095/user/icon/adaptable/f1?rev=110087126</t>
@@ -8449,7 +8011,6 @@
           <t>مهدی ملکی</t>
         </is>
       </c>
-      <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/326579/user/icon/adaptable/f1?rev=110058057</t>
@@ -8465,7 +8026,6 @@
           <t>حسین بنا متجدد امروز</t>
         </is>
       </c>
-      <c r="B490" t="inlineStr"/>
       <c r="C490" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/326913/user/icon/adaptable/f1?rev=110062024</t>
@@ -8501,7 +8061,6 @@
           <t>حمید زیاری</t>
         </is>
       </c>
-      <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -8517,7 +8076,6 @@
           <t>پیام طیبی</t>
         </is>
       </c>
-      <c r="B493" t="inlineStr"/>
       <c r="C493" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/327950/user/icon/adaptable/f1?rev=110075649</t>
@@ -8533,7 +8091,6 @@
           <t>بیژن غفاری قمی</t>
         </is>
       </c>
-      <c r="B494" t="inlineStr"/>
       <c r="C494" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/328036/user/icon/adaptable/f1?rev=110073671</t>
@@ -8549,7 +8106,6 @@
           <t>امیرحسین اسمعیلی</t>
         </is>
       </c>
-      <c r="B495" t="inlineStr"/>
       <c r="C495" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/328362/user/icon/adaptable/f1?rev=113941150</t>
@@ -8565,7 +8121,6 @@
           <t>حبیب الله اکبری</t>
         </is>
       </c>
-      <c r="B496" t="inlineStr"/>
       <c r="C496" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/328452/user/icon/adaptable/f1?rev=110068006</t>
@@ -8581,7 +8136,6 @@
           <t>اعظم السادات فاطمی اردستانی</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr"/>
       <c r="C497" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/328460/user/icon/adaptable/f1?rev=110993308</t>
@@ -8597,7 +8151,6 @@
           <t>حسین بابا جانیان بیشه</t>
         </is>
       </c>
-      <c r="B498" t="inlineStr"/>
       <c r="C498" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/329187/user/icon/adaptable/f1?rev=110068862</t>
@@ -8613,7 +8166,6 @@
           <t>علیرضا همتی</t>
         </is>
       </c>
-      <c r="B499" t="inlineStr"/>
       <c r="C499" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/330170/user/icon/adaptable/f1?rev=110075469</t>
@@ -8629,7 +8181,6 @@
           <t>محمد قانونی بقا</t>
         </is>
       </c>
-      <c r="B500" t="inlineStr"/>
       <c r="C500" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/330344/user/icon/adaptable/f1?rev=110080093</t>
@@ -8645,7 +8196,6 @@
           <t>محمدباقر قائمی</t>
         </is>
       </c>
-      <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/331951/user/icon/adaptable/f1?rev=110079079</t>
@@ -8661,7 +8211,6 @@
           <t>محمد شهبازی اغبلاغ</t>
         </is>
       </c>
-      <c r="B502" t="inlineStr"/>
       <c r="C502" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/332072/user/icon/adaptable/f1?rev=110069906</t>
@@ -8677,7 +8226,6 @@
           <t>سمانه تقدیر</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr"/>
       <c r="C503" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/332719/user/icon/adaptable/f1?rev=110070110</t>
@@ -8713,7 +8261,6 @@
           <t>ابوالفضل دیانت</t>
         </is>
       </c>
-      <c r="B505" t="inlineStr"/>
       <c r="C505" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/354674/user/icon/adaptable/f1?rev=110066182</t>
@@ -8729,7 +8276,6 @@
           <t>حسین سلیمانی</t>
         </is>
       </c>
-      <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/356791/user/icon/adaptable/f1?rev=123338828</t>
@@ -8745,7 +8291,6 @@
           <t>محمد صدیقی</t>
         </is>
       </c>
-      <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357197/user/icon/adaptable/f1?rev=110062863</t>
@@ -8761,7 +8306,6 @@
           <t>اسما سلیمانی</t>
         </is>
       </c>
-      <c r="B508" t="inlineStr"/>
       <c r="C508" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357206/user/icon/adaptable/f1?rev=110076904</t>
@@ -8777,7 +8321,6 @@
           <t>هادی شهریار شاه حسینی</t>
         </is>
       </c>
-      <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357317/user/icon/adaptable/f1?rev=110076880</t>
@@ -8793,7 +8336,6 @@
           <t>سیدحسین سیدین</t>
         </is>
       </c>
-      <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357361/user/icon/adaptable/f1?rev=110066998</t>
@@ -8809,7 +8351,6 @@
           <t>محمدعلی رضوانی</t>
         </is>
       </c>
-      <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357381/user/icon/adaptable/f1?rev=110064720</t>
@@ -8825,7 +8366,6 @@
           <t>حسین بلندی</t>
         </is>
       </c>
-      <c r="B512" t="inlineStr"/>
       <c r="C512" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357419/user/icon/adaptable/f1?rev=110084928</t>
@@ -8841,7 +8381,6 @@
           <t>سید حسین رضوی</t>
         </is>
       </c>
-      <c r="B513" t="inlineStr"/>
       <c r="C513" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357467/user/icon/adaptable/f1?rev=110068224</t>
@@ -8857,7 +8396,6 @@
           <t>محمد رضا دلیری</t>
         </is>
       </c>
-      <c r="B514" t="inlineStr"/>
       <c r="C514" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357803/user/icon/adaptable/f1?rev=110065906</t>
@@ -8873,7 +8411,6 @@
           <t>محمد سعید جبل عاملی</t>
         </is>
       </c>
-      <c r="B515" t="inlineStr"/>
       <c r="C515" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357871/user/icon/adaptable/f1?rev=110082884</t>
@@ -8889,7 +8426,6 @@
           <t>حمیدرضا حیدری</t>
         </is>
       </c>
-      <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/357942/user/icon/adaptable/f1?rev=110073429</t>
@@ -8905,7 +8441,6 @@
           <t>علیرضا خاوندی</t>
         </is>
       </c>
-      <c r="B517" t="inlineStr"/>
       <c r="C517" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358000/user/icon/adaptable/f1?rev=110082055</t>
@@ -8921,7 +8456,6 @@
           <t>احمد رهبر کلیشمی</t>
         </is>
       </c>
-      <c r="B518" t="inlineStr"/>
       <c r="C518" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358015/user/icon/adaptable/f1?rev=110078176</t>
@@ -8937,7 +8471,6 @@
           <t>مهدی حیدری</t>
         </is>
       </c>
-      <c r="B519" t="inlineStr"/>
       <c r="C519" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358174/user/icon/adaptable/f1?rev=110067388</t>
@@ -8953,7 +8486,6 @@
           <t>سجاد مؤذن</t>
         </is>
       </c>
-      <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358316/user/icon/adaptable/f1?rev=110081251</t>
@@ -8969,7 +8501,6 @@
           <t>مهدی بیدآبادی</t>
         </is>
       </c>
-      <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358545/user/icon/adaptable/f1?rev=110069697</t>
@@ -8985,7 +8516,6 @@
           <t>عباس عرفانیان امیدوار</t>
         </is>
       </c>
-      <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358582/user/icon/adaptable/f1?rev=110061751</t>
@@ -9001,7 +8531,6 @@
           <t>محمد شیخ شاب بافقی</t>
         </is>
       </c>
-      <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358592/user/icon/adaptable/f1?rev=110056343</t>
@@ -9017,7 +8546,6 @@
           <t>شهرام محمدنژاد</t>
         </is>
       </c>
-      <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358599/user/icon/adaptable/f1?rev=110070921</t>
@@ -9033,7 +8561,6 @@
           <t>وحید رضا یزدان پناه</t>
         </is>
       </c>
-      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358608/user/icon/adaptable/f1?rev=110088897</t>
@@ -9049,7 +8576,6 @@
           <t>ناصر کلینی ممقانی</t>
         </is>
       </c>
-      <c r="B526" t="inlineStr"/>
       <c r="C526" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358673/user/icon/adaptable/f1?rev=110068132</t>
@@ -9065,7 +8591,6 @@
           <t>مهدی نویدبخش</t>
         </is>
       </c>
-      <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358692/user/icon/adaptable/f1?rev=110065722</t>
@@ -9081,7 +8606,6 @@
           <t>سیدعبدالهادی دانشپور</t>
         </is>
       </c>
-      <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358701/user/icon/adaptable/f1?rev=110072920</t>
@@ -9097,7 +8621,6 @@
           <t>عبدالرضا شیخ الاسلامی کندلوسی</t>
         </is>
       </c>
-      <c r="B529" t="inlineStr"/>
       <c r="C529" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358715/user/icon/adaptable/f1?rev=110079143</t>
@@ -9113,7 +8636,6 @@
           <t>مرتضی رهبر</t>
         </is>
       </c>
-      <c r="B530" t="inlineStr"/>
       <c r="C530" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358732/user/icon/adaptable/f1?rev=110071122</t>
@@ -9129,7 +8651,6 @@
           <t>امین اوحدی اصفهانی</t>
         </is>
       </c>
-      <c r="B531" t="inlineStr"/>
       <c r="C531" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358780/user/icon/adaptable/f1?rev=110087486</t>
@@ -9145,7 +8666,6 @@
           <t>علی اصغر شکری</t>
         </is>
       </c>
-      <c r="B532" t="inlineStr"/>
       <c r="C532" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358797/user/icon/adaptable/f1?rev=110067964</t>
@@ -9161,7 +8681,6 @@
           <t>محمدرضا مقبلی</t>
         </is>
       </c>
-      <c r="B533" t="inlineStr"/>
       <c r="C533" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358840/user/icon/adaptable/f1?rev=110068138</t>
@@ -9177,7 +8696,6 @@
           <t>محمد رضا زمانی</t>
         </is>
       </c>
-      <c r="B534" t="inlineStr"/>
       <c r="C534" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358848/user/icon/adaptable/f1?rev=110084217</t>
@@ -9193,7 +8711,6 @@
           <t>امیرمهدی تحسینی</t>
         </is>
       </c>
-      <c r="B535" t="inlineStr"/>
       <c r="C535" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358867/user/icon/adaptable/f1?rev=110066524</t>
@@ -9209,7 +8726,6 @@
           <t>محمدحسین کهایی</t>
         </is>
       </c>
-      <c r="B536" t="inlineStr"/>
       <c r="C536" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/358943/user/icon/adaptable/f1?rev=110075607</t>
@@ -9225,7 +8741,6 @@
           <t>رضا معدولیت</t>
         </is>
       </c>
-      <c r="B537" t="inlineStr"/>
       <c r="C537" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359083/user/icon/adaptable/f1?rev=110059126</t>
@@ -9241,7 +8756,6 @@
           <t>علیرضا تقدیری</t>
         </is>
       </c>
-      <c r="B538" t="inlineStr"/>
       <c r="C538" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9257,7 +8771,6 @@
           <t>عطا اله رفیعی آتانی</t>
         </is>
       </c>
-      <c r="B539" t="inlineStr"/>
       <c r="C539" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359135/user/icon/adaptable/f1?rev=110070765</t>
@@ -9273,7 +8786,6 @@
           <t>معصومه رجبی تنها</t>
         </is>
       </c>
-      <c r="B540" t="inlineStr"/>
       <c r="C540" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359173/user/icon/adaptable/f1?rev=110088414</t>
@@ -9289,7 +8801,6 @@
           <t>غلامحسین یاری</t>
         </is>
       </c>
-      <c r="B541" t="inlineStr"/>
       <c r="C541" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359280/user/icon/adaptable/f1?rev=110069738</t>
@@ -9305,7 +8816,6 @@
           <t>محمد حق پناهی</t>
         </is>
       </c>
-      <c r="B542" t="inlineStr"/>
       <c r="C542" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359281/user/icon/adaptable/f1?rev=110067028</t>
@@ -9321,7 +8831,6 @@
           <t>محرم حبیب نژادکورایم</t>
         </is>
       </c>
-      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359303/user/icon/adaptable/f1?rev=110072011</t>
@@ -9337,7 +8846,6 @@
           <t>شاهرخ حسینی هاشمی</t>
         </is>
       </c>
-      <c r="B544" t="inlineStr"/>
       <c r="C544" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359335/user/icon/adaptable/f1?rev=110061095</t>
@@ -9353,7 +8861,6 @@
           <t>محسن ملوندی</t>
         </is>
       </c>
-      <c r="B545" t="inlineStr"/>
       <c r="C545" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359349/user/icon/adaptable/f1?rev=110068156</t>
@@ -9369,7 +8876,6 @@
           <t>حسین افضلی مهر</t>
         </is>
       </c>
-      <c r="B546" t="inlineStr"/>
       <c r="C546" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359384/user/icon/adaptable/f1?rev=110068718</t>
@@ -9385,7 +8891,6 @@
           <t>دکتر محمد حسن شجاعی فرد</t>
         </is>
       </c>
-      <c r="B547" t="inlineStr"/>
       <c r="C547" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9401,7 +8906,6 @@
           <t>محمود احمدی نژاد</t>
         </is>
       </c>
-      <c r="B548" t="inlineStr"/>
       <c r="C548" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359402/user/icon/adaptable/f1?rev=110083636</t>
@@ -9417,7 +8921,6 @@
           <t>محمد رضا پارسا نژاد</t>
         </is>
       </c>
-      <c r="B549" t="inlineStr"/>
       <c r="C549" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359417/user/icon/adaptable/f1?rev=110078239</t>
@@ -9453,7 +8956,6 @@
           <t>مهران علی الحسابی</t>
         </is>
       </c>
-      <c r="B551" t="inlineStr"/>
       <c r="C551" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359461/user/icon/adaptable/f1?rev=111158048</t>
@@ -9469,7 +8971,6 @@
           <t>عبدالمجید ارجمندی</t>
         </is>
       </c>
-      <c r="B552" t="inlineStr"/>
       <c r="C552" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359474/user/icon/adaptable/f1?rev=110070861</t>
@@ -9505,7 +9006,6 @@
           <t>مرتضی منتظری قهجاورستانی</t>
         </is>
       </c>
-      <c r="B554" t="inlineStr"/>
       <c r="C554" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359515/user/icon/adaptable/f1?rev=110074286</t>
@@ -9521,7 +9021,6 @@
           <t>آویده کامرانی</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr"/>
       <c r="C555" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359516/user/icon/adaptable/f1?rev=110075231</t>
@@ -9537,7 +9036,6 @@
           <t>منصور علیزاده</t>
         </is>
       </c>
-      <c r="B556" t="inlineStr"/>
       <c r="C556" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359543/user/icon/adaptable/f1?rev=110071679</t>
@@ -9553,7 +9051,6 @@
           <t>رحمت اله رحیمی</t>
         </is>
       </c>
-      <c r="B557" t="inlineStr"/>
       <c r="C557" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359593/user/icon/adaptable/f1?rev=110068290</t>
@@ -9569,7 +9066,6 @@
           <t>جواد میر محمد صادقی</t>
         </is>
       </c>
-      <c r="B558" t="inlineStr"/>
       <c r="C558" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359612/user/icon/adaptable/f1?rev=110084259</t>
@@ -9585,7 +9081,6 @@
           <t>عبدالله ملک زاده</t>
         </is>
       </c>
-      <c r="B559" t="inlineStr"/>
       <c r="C559" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9601,7 +9096,6 @@
           <t>میثم جلالی</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr"/>
       <c r="C560" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359693/user/icon/adaptable/f1?rev=110069234</t>
@@ -9617,7 +9111,6 @@
           <t>دکتر حسین راعی</t>
         </is>
       </c>
-      <c r="B561" t="inlineStr"/>
       <c r="C561" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/359968/user/icon/adaptable/f1?rev=110069156</t>
@@ -9633,7 +9126,6 @@
           <t>محمدرضا کنگاوری</t>
         </is>
       </c>
-      <c r="B562" t="inlineStr"/>
       <c r="C562" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/360122/user/icon/adaptable/f1?rev=110066416</t>
@@ -9649,7 +9141,6 @@
           <t>اصغر حبیب نژاد کورایم</t>
         </is>
       </c>
-      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/360165/user/icon/adaptable/f1?rev=110071751</t>
@@ -9665,7 +9156,6 @@
           <t>نوراله هادی</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9681,7 +9171,6 @@
           <t>نادر شریعتمداری</t>
         </is>
       </c>
-      <c r="B565" t="inlineStr"/>
       <c r="C565" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/360267/user/icon/adaptable/f1?rev=110088736</t>
@@ -9697,7 +9186,6 @@
           <t>نرگس هوشمند همدانی</t>
         </is>
       </c>
-      <c r="B566" t="inlineStr"/>
       <c r="C566" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/360388/user/icon/adaptable/f1?rev=110069756</t>
@@ -9713,7 +9201,6 @@
           <t>ارسلان حکمتی</t>
         </is>
       </c>
-      <c r="B567" t="inlineStr"/>
       <c r="C567" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9749,7 +9236,6 @@
           <t>سید علی مسیبی</t>
         </is>
       </c>
-      <c r="B569" t="inlineStr"/>
       <c r="C569" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/360544/user/icon/adaptable/f1?rev=110072621</t>
@@ -9765,7 +9251,6 @@
           <t>رضا تقوی زنوز</t>
         </is>
       </c>
-      <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/360545/user/icon/adaptable/f1?rev=110080512</t>
@@ -9801,7 +9286,6 @@
           <t>حسن ثقفیان لاریجانی</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/361303/user/icon/adaptable/f1?rev=110063191</t>
@@ -9817,7 +9301,6 @@
           <t>حمیدرضا احدی</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr"/>
       <c r="C573" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/361333/user/icon/adaptable/f1?rev=110232806</t>
@@ -9833,7 +9316,6 @@
           <t>رضا خیرالدین</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr"/>
       <c r="C574" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/361342/user/icon/adaptable/f1?rev=110064143</t>
@@ -9849,7 +9331,6 @@
           <t>داود یونسیان</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr"/>
       <c r="C575" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/361395/user/icon/adaptable/f1?rev=110089792</t>
@@ -9865,7 +9346,6 @@
           <t>محسن رضایی</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9881,7 +9361,6 @@
           <t>فاطمه مهدی زاده سراج</t>
         </is>
       </c>
-      <c r="B577" t="inlineStr"/>
       <c r="C577" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/361820/user/icon/adaptable/f1?rev=110073727</t>
@@ -9897,7 +9376,6 @@
           <t>حسین آقاجانی</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr"/>
       <c r="C578" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9913,7 +9391,6 @@
           <t>محمدحسین کاظمی نژاد</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr"/>
       <c r="C579" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9929,7 +9406,6 @@
           <t>سعید نوروزیان ملکی</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr"/>
       <c r="C580" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9945,7 +9421,6 @@
           <t>غلامرضا جاپلقی</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr"/>
       <c r="C581" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9961,7 +9436,6 @@
           <t>صادق جمالی</t>
         </is>
       </c>
-      <c r="B582" t="inlineStr"/>
       <c r="C582" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/361994/user/icon/adaptable/f1?rev=110068736</t>
@@ -9977,7 +9451,6 @@
           <t>احد کاظمی</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr"/>
       <c r="C583" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -9993,7 +9466,6 @@
           <t>صدیقه باقری کاظم آباد</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr"/>
       <c r="C584" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10009,7 +9481,6 @@
           <t>علیرضا شورشی</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10025,7 +9496,6 @@
           <t>سید مهدی شریف موسوی</t>
         </is>
       </c>
-      <c r="B586" t="inlineStr"/>
       <c r="C586" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10041,7 +9511,6 @@
           <t>جواد مجروحی سردرود</t>
         </is>
       </c>
-      <c r="B587" t="inlineStr"/>
       <c r="C587" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10057,7 +9526,6 @@
           <t>سید محسن حسینی</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr"/>
       <c r="C588" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/362245/user/icon/adaptable/f1?rev=111234074</t>
@@ -10073,7 +9541,6 @@
           <t>غلامرضا حسن زاده قیه قشلاقی</t>
         </is>
       </c>
-      <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10089,7 +9556,6 @@
           <t>محمود میرقاسمی</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr"/>
       <c r="C590" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10105,7 +9571,6 @@
           <t>اعضاء دپارتمان تست</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr"/>
       <c r="C591" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10121,7 +9586,6 @@
           <t>فرشید ریخته گر</t>
         </is>
       </c>
-      <c r="B592" t="inlineStr"/>
       <c r="C592" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10157,7 +9621,6 @@
           <t>نازلی بشارتی</t>
         </is>
       </c>
-      <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10173,7 +9636,6 @@
           <t>حامد روح الامینی</t>
         </is>
       </c>
-      <c r="B595" t="inlineStr"/>
       <c r="C595" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/363078/user/icon/adaptable/f1?rev=110441942</t>
@@ -10189,7 +9651,6 @@
           <t>علیرضا مصلح تهرانی</t>
         </is>
       </c>
-      <c r="B596" t="inlineStr"/>
       <c r="C596" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/363236/user/icon/adaptable/f1?rev=110056977</t>
@@ -10205,7 +9666,6 @@
           <t>عبدالرسول میرقدری</t>
         </is>
       </c>
-      <c r="B597" t="inlineStr"/>
       <c r="C597" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10221,7 +9681,6 @@
           <t>نادر حکیمی پور</t>
         </is>
       </c>
-      <c r="B598" t="inlineStr"/>
       <c r="C598" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10237,7 +9696,6 @@
           <t>بهروز غفوریان</t>
         </is>
       </c>
-      <c r="B599" t="inlineStr"/>
       <c r="C599" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10253,7 +9711,6 @@
           <t>مهدی عصاره</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr"/>
       <c r="C600" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/363817/user/icon/adaptable/f1?rev=110058687</t>
@@ -10269,7 +9726,6 @@
           <t>بهمن میرزاخانی</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr"/>
       <c r="C601" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10305,7 +9761,6 @@
           <t>محسن پور سیداقایی</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr"/>
       <c r="C603" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/376693/user/icon/adaptable/f1?rev=110061555</t>
@@ -10321,7 +9776,6 @@
           <t>امین بازیاری</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr"/>
       <c r="C604" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/376707/user/icon/adaptable/f1?rev=110061573</t>
@@ -10337,7 +9791,6 @@
           <t>سیدمصطفی حسینعلی پور</t>
         </is>
       </c>
-      <c r="B605" t="inlineStr"/>
       <c r="C605" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/376746/user/icon/adaptable/f1?rev=110061603</t>
@@ -10353,7 +9806,6 @@
           <t>رضا ایلاتی</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr"/>
       <c r="C606" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/377022/user/icon/adaptable/f1?rev=110092738</t>
@@ -10389,7 +9841,6 @@
           <t>هدی همایونی</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr"/>
       <c r="C608" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10405,7 +9856,6 @@
           <t>سید پیمان خادم الحسینی</t>
         </is>
       </c>
-      <c r="B609" t="inlineStr"/>
       <c r="C609" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10421,7 +9871,6 @@
           <t>ایوب علی نیای مطلق</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr"/>
       <c r="C610" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/377588/user/icon/adaptable/f1?rev=110105789</t>
@@ -10437,7 +9886,6 @@
           <t>فرنوش فطروسی</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr"/>
       <c r="C611" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10473,7 +9921,6 @@
           <t>مهدی نصیری سروی</t>
         </is>
       </c>
-      <c r="B613" t="inlineStr"/>
       <c r="C613" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10489,7 +9936,6 @@
           <t>محمد رضا محمد علیها</t>
         </is>
       </c>
-      <c r="B614" t="inlineStr"/>
       <c r="C614" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/396578/user/icon/adaptable/f1?rev=110067442</t>
@@ -10505,7 +9951,6 @@
           <t>فریبرز قاسمی فیض آبادی</t>
         </is>
       </c>
-      <c r="B615" t="inlineStr"/>
       <c r="C615" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/396593/user/icon/adaptable/f1?rev=110067496</t>
@@ -10521,7 +9966,6 @@
           <t>سیدادریس فیض آبادی</t>
         </is>
       </c>
-      <c r="B616" t="inlineStr"/>
       <c r="C616" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/396773/user/icon/adaptable/f1?rev=110068018</t>
@@ -10537,7 +9981,6 @@
           <t>مسعود گودرزی</t>
         </is>
       </c>
-      <c r="B617" t="inlineStr"/>
       <c r="C617" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/396795/user/icon/adaptable/f1?rev=110068072</t>
@@ -10553,7 +9996,6 @@
           <t>نوشین ابوالحسنی</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr"/>
       <c r="C618" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10569,7 +10011,6 @@
           <t>محمود عامری</t>
         </is>
       </c>
-      <c r="B619" t="inlineStr"/>
       <c r="C619" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/396886/user/icon/adaptable/f1?rev=110068500</t>
@@ -10585,7 +10026,6 @@
           <t>مگردیچ تومانیان</t>
         </is>
       </c>
-      <c r="B620" t="inlineStr"/>
       <c r="C620" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10621,7 +10061,6 @@
           <t>سید هاشم اسلامی</t>
         </is>
       </c>
-      <c r="B622" t="inlineStr"/>
       <c r="C622" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -10637,7 +10076,6 @@
           <t>سیدمحمدعلی بوترابی</t>
         </is>
       </c>
-      <c r="B623" t="inlineStr"/>
       <c r="C623" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397145/user/icon/adaptable/f1?rev=110069450</t>
@@ -10653,7 +10091,6 @@
           <t>احمد آیت الهی</t>
         </is>
       </c>
-      <c r="B624" t="inlineStr"/>
       <c r="C624" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397152/user/icon/adaptable/f1?rev=110069942</t>
@@ -10669,7 +10106,6 @@
           <t>فرزاد بازدیدی طهرانی</t>
         </is>
       </c>
-      <c r="B625" t="inlineStr"/>
       <c r="C625" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397154/user/icon/adaptable/f1?rev=110070104</t>
@@ -10685,7 +10121,6 @@
           <t>ابراهیم جباری</t>
         </is>
       </c>
-      <c r="B626" t="inlineStr"/>
       <c r="C626" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397164/user/icon/adaptable/f1?rev=110070586</t>
@@ -10701,7 +10136,6 @@
           <t>حسین عربی</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr"/>
       <c r="C627" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397175/user/icon/adaptable/f1?rev=110071277</t>
@@ -10717,7 +10151,6 @@
           <t>مرتضی اسماعیلی</t>
         </is>
       </c>
-      <c r="B628" t="inlineStr"/>
       <c r="C628" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397179/user/icon/adaptable/f1?rev=110071517</t>
@@ -10733,7 +10166,6 @@
           <t>آزاده تجردی</t>
         </is>
       </c>
-      <c r="B629" t="inlineStr"/>
       <c r="C629" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397181/user/icon/adaptable/f1?rev=110071607</t>
@@ -10749,7 +10181,6 @@
           <t>جعفر جوادپور</t>
         </is>
       </c>
-      <c r="B630" t="inlineStr"/>
       <c r="C630" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397200/user/icon/adaptable/f1?rev=110072469</t>
@@ -10765,7 +10196,6 @@
           <t>مجیدرضا آیت الهی</t>
         </is>
       </c>
-      <c r="B631" t="inlineStr"/>
       <c r="C631" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397211/user/icon/adaptable/f1?rev=110072914</t>
@@ -10781,7 +10211,6 @@
           <t>حمیدرضا رضایی</t>
         </is>
       </c>
-      <c r="B632" t="inlineStr"/>
       <c r="C632" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397236/user/icon/adaptable/f1?rev=110073369</t>
@@ -10797,7 +10226,6 @@
           <t>محمدعلی خان محمدی آق کند</t>
         </is>
       </c>
-      <c r="B633" t="inlineStr"/>
       <c r="C633" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397244/user/icon/adaptable/f1?rev=110073621</t>
@@ -10813,7 +10241,6 @@
           <t>محمد مهدوی مزده</t>
         </is>
       </c>
-      <c r="B634" t="inlineStr"/>
       <c r="C634" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397246/user/icon/adaptable/f1?rev=110073647</t>
@@ -10829,7 +10256,6 @@
           <t>مرتضی قارونی نیک</t>
         </is>
       </c>
-      <c r="B635" t="inlineStr"/>
       <c r="C635" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397247/user/icon/adaptable/f1?rev=110073683</t>
@@ -10845,7 +10271,6 @@
           <t>خلیل پاریاب</t>
         </is>
       </c>
-      <c r="B636" t="inlineStr"/>
       <c r="C636" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397250/user/icon/adaptable/f1?rev=110073715</t>
@@ -10861,7 +10286,6 @@
           <t>مهرداد آقا محمد علی کرمانی</t>
         </is>
       </c>
-      <c r="B637" t="inlineStr"/>
       <c r="C637" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397252/user/icon/adaptable/f1?rev=110073819</t>
@@ -10877,7 +10301,6 @@
           <t>علی اصغر بهشتی شیرازی</t>
         </is>
       </c>
-      <c r="B638" t="inlineStr"/>
       <c r="C638" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397262/user/icon/adaptable/f1?rev=110074188</t>
@@ -10893,7 +10316,6 @@
           <t>غلامرضا قدرتی امیری</t>
         </is>
       </c>
-      <c r="B639" t="inlineStr"/>
       <c r="C639" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397269/user/icon/adaptable/f1?rev=110074329</t>
@@ -10909,7 +10331,6 @@
           <t>منصور انبیاء</t>
         </is>
       </c>
-      <c r="B640" t="inlineStr"/>
       <c r="C640" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397271/user/icon/adaptable/f1?rev=110074365</t>
@@ -10925,7 +10346,6 @@
           <t>حمیدرضا کوه دار</t>
         </is>
       </c>
-      <c r="B641" t="inlineStr"/>
       <c r="C641" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397288/user/icon/adaptable/f1?rev=110074748</t>
@@ -10941,7 +10361,6 @@
           <t>امیرحسین احمدخان کردبچه</t>
         </is>
       </c>
-      <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397293/user/icon/adaptable/f1?rev=110074869</t>
@@ -10957,7 +10376,6 @@
           <t>سیاوش کاظمی راد</t>
         </is>
       </c>
-      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397294/user/icon/adaptable/f1?rev=110074884</t>
@@ -10973,7 +10391,6 @@
           <t>محمد محمدپورعمران</t>
         </is>
       </c>
-      <c r="B644" t="inlineStr"/>
       <c r="C644" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397299/user/icon/adaptable/f1?rev=110075076</t>
@@ -10989,7 +10406,6 @@
           <t>زهرا البرزی</t>
         </is>
       </c>
-      <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11005,7 +10421,6 @@
           <t>هرمز فامیلی</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr"/>
       <c r="C646" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397329/user/icon/adaptable/f1?rev=110075695</t>
@@ -11021,7 +10436,6 @@
           <t>شهریار افندیزاده زرگری</t>
         </is>
       </c>
-      <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397337/user/icon/adaptable/f1?rev=110075837</t>
@@ -11037,7 +10451,6 @@
           <t>مسلم احمدی</t>
         </is>
       </c>
-      <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11053,7 +10466,6 @@
           <t>مرتضی باقر پور</t>
         </is>
       </c>
-      <c r="B649" t="inlineStr"/>
       <c r="C649" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397343/user/icon/adaptable/f1?rev=110076031</t>
@@ -11069,7 +10481,6 @@
           <t>حسن ملکی تبار</t>
         </is>
       </c>
-      <c r="B650" t="inlineStr"/>
       <c r="C650" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11085,7 +10496,6 @@
           <t>محمدحسن شجاعی فرد</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr"/>
       <c r="C651" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397351/user/icon/adaptable/f1?rev=110076229</t>
@@ -11101,7 +10511,6 @@
           <t>علی نصیری</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr"/>
       <c r="C652" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397367/user/icon/adaptable/f1?rev=110076554</t>
@@ -11117,7 +10526,6 @@
           <t>محمدقربان دکامین</t>
         </is>
       </c>
-      <c r="B653" t="inlineStr"/>
       <c r="C653" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397374/user/icon/adaptable/f1?rev=110076680</t>
@@ -11133,7 +10541,6 @@
           <t>رحیم نقی زاده</t>
         </is>
       </c>
-      <c r="B654" t="inlineStr"/>
       <c r="C654" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397386/user/icon/adaptable/f1?rev=110077030</t>
@@ -11149,7 +10556,6 @@
           <t>رحمان فرنوش</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr"/>
       <c r="C655" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397391/user/icon/adaptable/f1?rev=110077260</t>
@@ -11165,7 +10571,6 @@
           <t>همایون اشراقی</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr"/>
       <c r="C656" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397395/user/icon/adaptable/f1?rev=110077428</t>
@@ -11181,7 +10586,6 @@
           <t>رضا دشتی</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397399/user/icon/adaptable/f1?rev=110077650</t>
@@ -11197,7 +10601,6 @@
           <t>وحیدرضا باقری</t>
         </is>
       </c>
-      <c r="B658" t="inlineStr"/>
       <c r="C658" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397400/user/icon/adaptable/f1?rev=110077686</t>
@@ -11213,7 +10616,6 @@
           <t>اصغر ابوالحسنی هستیانی</t>
         </is>
       </c>
-      <c r="B659" t="inlineStr"/>
       <c r="C659" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11229,7 +10631,6 @@
           <t>حسن زیاری</t>
         </is>
       </c>
-      <c r="B660" t="inlineStr"/>
       <c r="C660" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397403/user/icon/adaptable/f1?rev=110077704</t>
@@ -11245,7 +10646,6 @@
           <t>وحید قاسمیان سوربنی</t>
         </is>
       </c>
-      <c r="B661" t="inlineStr"/>
       <c r="C661" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397407/user/icon/adaptable/f1?rev=110077886</t>
@@ -11261,7 +10661,6 @@
           <t>سیامک نوری</t>
         </is>
       </c>
-      <c r="B662" t="inlineStr"/>
       <c r="C662" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397441/user/icon/adaptable/f1?rev=110078485</t>
@@ -11277,7 +10676,6 @@
           <t>علی پارسا</t>
         </is>
       </c>
-      <c r="B663" t="inlineStr"/>
       <c r="C663" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11293,7 +10691,6 @@
           <t>عباس افشار</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr"/>
       <c r="C664" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397474/user/icon/adaptable/f1?rev=110079566</t>
@@ -11309,7 +10706,6 @@
           <t>یاسر سبحانی فرد</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr"/>
       <c r="C665" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397475/user/icon/adaptable/f1?rev=123871478</t>
@@ -11325,7 +10721,6 @@
           <t>محبوبه ربانی</t>
         </is>
       </c>
-      <c r="B666" t="inlineStr"/>
       <c r="C666" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397496/user/icon/adaptable/f1?rev=112062116</t>
@@ -11341,7 +10736,6 @@
           <t>علی عبد العالی</t>
         </is>
       </c>
-      <c r="B667" t="inlineStr"/>
       <c r="C667" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397509/user/icon/adaptable/f1?rev=110080147</t>
@@ -11357,7 +10751,6 @@
           <t>حیدر علی شایانفر</t>
         </is>
       </c>
-      <c r="B668" t="inlineStr"/>
       <c r="C668" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397545/user/icon/adaptable/f1?rev=110080788</t>
@@ -11373,7 +10766,6 @@
           <t>محمدحسن بازیار</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr"/>
       <c r="C669" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397574/user/icon/adaptable/f1?rev=110081727</t>
@@ -11389,7 +10781,6 @@
           <t>محمد سبک رو</t>
         </is>
       </c>
-      <c r="B670" t="inlineStr"/>
       <c r="C670" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11405,7 +10796,6 @@
           <t>حمیدرضا کرمی</t>
         </is>
       </c>
-      <c r="B671" t="inlineStr"/>
       <c r="C671" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397634/user/icon/adaptable/f1?rev=110082373</t>
@@ -11421,7 +10811,6 @@
           <t>حسین چراغچی</t>
         </is>
       </c>
-      <c r="B672" t="inlineStr"/>
       <c r="C672" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397637/user/icon/adaptable/f1?rev=110082403</t>
@@ -11437,7 +10826,6 @@
           <t>مرتضی رئیسی دهکردی</t>
         </is>
       </c>
-      <c r="B673" t="inlineStr"/>
       <c r="C673" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397652/user/icon/adaptable/f1?rev=110082629</t>
@@ -11453,7 +10841,6 @@
           <t>محمدرضا حمیدی زاده</t>
         </is>
       </c>
-      <c r="B674" t="inlineStr"/>
       <c r="C674" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11469,7 +10856,6 @@
           <t>سیدجواد ازهری</t>
         </is>
       </c>
-      <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397672/user/icon/adaptable/f1?rev=110082832</t>
@@ -11485,7 +10871,6 @@
           <t>سیدنظام الدین اشرفی زاده</t>
         </is>
       </c>
-      <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397673/user/icon/adaptable/f1?rev=110082838</t>
@@ -11501,7 +10886,6 @@
           <t>کامران دانشجو</t>
         </is>
       </c>
-      <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397677/user/icon/adaptable/f1?rev=110082890</t>
@@ -11537,7 +10921,6 @@
           <t>محمد ریاحی</t>
         </is>
       </c>
-      <c r="B679" t="inlineStr"/>
       <c r="C679" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397728/user/icon/adaptable/f1?rev=110083336</t>
@@ -11553,7 +10936,6 @@
           <t>مصطفی مرشد سلوک</t>
         </is>
       </c>
-      <c r="B680" t="inlineStr"/>
       <c r="C680" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11569,7 +10951,6 @@
           <t>سیدمحمدعلی موسوی</t>
         </is>
       </c>
-      <c r="B681" t="inlineStr"/>
       <c r="C681" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11585,7 +10966,6 @@
           <t>سعید سلیمی</t>
         </is>
       </c>
-      <c r="B682" t="inlineStr"/>
       <c r="C682" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397974/user/icon/adaptable/f1?rev=110093412</t>
@@ -11601,7 +10981,6 @@
           <t>رحیم خانی زاد</t>
         </is>
       </c>
-      <c r="B683" t="inlineStr"/>
       <c r="C683" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397984/user/icon/adaptable/f1?rev=111251222</t>
@@ -11617,7 +10996,6 @@
           <t>رضا پارچه باف</t>
         </is>
       </c>
-      <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11633,7 +11011,6 @@
           <t>توماج یوسفی</t>
         </is>
       </c>
-      <c r="B685" t="inlineStr"/>
       <c r="C685" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397996/user/icon/adaptable/f1?rev=111168556</t>
@@ -11649,7 +11026,6 @@
           <t>سعید رضا مساح</t>
         </is>
       </c>
-      <c r="B686" t="inlineStr"/>
       <c r="C686" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/397997/user/icon/adaptable/f1?rev=111418953</t>
@@ -11685,7 +11061,6 @@
           <t>محمد صالح شکوهی بیدهندی</t>
         </is>
       </c>
-      <c r="B688" t="inlineStr"/>
       <c r="C688" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398024/user/icon/adaptable/f1?rev=110084994</t>
@@ -11701,7 +11076,6 @@
           <t>وحید طباطباوکیلی</t>
         </is>
       </c>
-      <c r="B689" t="inlineStr"/>
       <c r="C689" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398040/user/icon/adaptable/f1?rev=110086534</t>
@@ -11717,7 +11091,6 @@
           <t>نادر کمجانی برچلوئی</t>
         </is>
       </c>
-      <c r="B690" t="inlineStr"/>
       <c r="C690" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398050/user/icon/adaptable/f1?rev=110086614</t>
@@ -11733,7 +11106,6 @@
           <t>الهه عرب زاده</t>
         </is>
       </c>
-      <c r="B691" t="inlineStr"/>
       <c r="C691" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11769,7 +11141,6 @@
           <t>حسین محمدی دولت آبادی</t>
         </is>
       </c>
-      <c r="B693" t="inlineStr"/>
       <c r="C693" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398109/user/icon/adaptable/f1?rev=110087306</t>
@@ -11785,7 +11156,6 @@
           <t>الیار ظفرخواه</t>
         </is>
       </c>
-      <c r="B694" t="inlineStr"/>
       <c r="C694" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11801,7 +11171,6 @@
           <t>احمد خلیلی</t>
         </is>
       </c>
-      <c r="B695" t="inlineStr"/>
       <c r="C695" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398154/user/icon/adaptable/f1?rev=110087689</t>
@@ -11817,7 +11186,6 @@
           <t>پرویز البرز</t>
         </is>
       </c>
-      <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11833,7 +11201,6 @@
           <t>سید محمد موسوی گزافرودی</t>
         </is>
       </c>
-      <c r="B697" t="inlineStr"/>
       <c r="C697" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398167/user/icon/adaptable/f1?rev=110087830</t>
@@ -11849,7 +11216,6 @@
           <t>آرمیتا سراج زاهدی</t>
         </is>
       </c>
-      <c r="B698" t="inlineStr"/>
       <c r="C698" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11865,7 +11231,6 @@
           <t>سید عباس آقا یزدانفر</t>
         </is>
       </c>
-      <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398222/user/icon/adaptable/f1?rev=110088561</t>
@@ -11881,7 +11246,6 @@
           <t>سیدذبیح الله طباطبایی شیرازانی</t>
         </is>
       </c>
-      <c r="B700" t="inlineStr"/>
       <c r="C700" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11897,7 +11261,6 @@
           <t>بهروز پورخورشیدی</t>
         </is>
       </c>
-      <c r="B701" t="inlineStr"/>
       <c r="C701" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11913,7 +11276,6 @@
           <t>محمد ترقی جاه</t>
         </is>
       </c>
-      <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398283/user/icon/adaptable/f1?rev=110123175</t>
@@ -11929,7 +11291,6 @@
           <t>رضا شهریاری</t>
         </is>
       </c>
-      <c r="B703" t="inlineStr"/>
       <c r="C703" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11945,7 +11306,6 @@
           <t>حمید مسگرانی</t>
         </is>
       </c>
-      <c r="B704" t="inlineStr"/>
       <c r="C704" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -11961,7 +11321,6 @@
           <t>حسین صالح زاده</t>
         </is>
       </c>
-      <c r="B705" t="inlineStr"/>
       <c r="C705" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398377/user/icon/adaptable/f1?rev=110089826</t>
@@ -11977,7 +11336,6 @@
           <t>علی محمد تاج الدین</t>
         </is>
       </c>
-      <c r="B706" t="inlineStr"/>
       <c r="C706" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398406/user/icon/adaptable/f1?rev=110090285</t>
@@ -11993,7 +11351,6 @@
           <t>امین وحیدی منفرد</t>
         </is>
       </c>
-      <c r="B707" t="inlineStr"/>
       <c r="C707" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12009,7 +11366,6 @@
           <t>محمد هاشم واجد سمیعی</t>
         </is>
       </c>
-      <c r="B708" t="inlineStr"/>
       <c r="C708" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398416/user/icon/adaptable/f1?rev=110090169</t>
@@ -12025,7 +11381,6 @@
           <t>ساناز لیتکوهی</t>
         </is>
       </c>
-      <c r="B709" t="inlineStr"/>
       <c r="C709" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12041,7 +11396,6 @@
           <t>حسن خرازی</t>
         </is>
       </c>
-      <c r="B710" t="inlineStr"/>
       <c r="C710" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12057,7 +11411,6 @@
           <t>محمد زاهدی مقدم</t>
         </is>
       </c>
-      <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12073,7 +11426,6 @@
           <t>محمد یعقوبی فر</t>
         </is>
       </c>
-      <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12089,7 +11441,6 @@
           <t>فاطمه نامی</t>
         </is>
       </c>
-      <c r="B713" t="inlineStr"/>
       <c r="C713" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12105,7 +11456,6 @@
           <t>محمدرضا علیرضائی</t>
         </is>
       </c>
-      <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398505/user/icon/adaptable/f1?rev=110091172</t>
@@ -12121,7 +11471,6 @@
           <t>فرخ حجت کاشانی</t>
         </is>
       </c>
-      <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398535/user/icon/adaptable/f1?rev=110091516</t>
@@ -12137,7 +11486,6 @@
           <t>ندا سادات صحراگرد منفرد</t>
         </is>
       </c>
-      <c r="B716" t="inlineStr"/>
       <c r="C716" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398578/user/icon/adaptable/f1?rev=110091837</t>
@@ -12153,7 +11501,6 @@
           <t>غلامعلی شجاع منظری</t>
         </is>
       </c>
-      <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398590/user/icon/adaptable/f1?rev=110091925</t>
@@ -12169,7 +11516,6 @@
           <t>موسی احمدیان</t>
         </is>
       </c>
-      <c r="B718" t="inlineStr"/>
       <c r="C718" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12185,7 +11531,6 @@
           <t>احمدرضا فروغ</t>
         </is>
       </c>
-      <c r="B719" t="inlineStr"/>
       <c r="C719" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12201,7 +11546,6 @@
           <t>سپهر صنایع</t>
         </is>
       </c>
-      <c r="B720" t="inlineStr"/>
       <c r="C720" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398608/user/icon/adaptable/f1?rev=110092102</t>
@@ -12217,7 +11561,6 @@
           <t>سیدمحمود میرطباطبایی</t>
         </is>
       </c>
-      <c r="B721" t="inlineStr"/>
       <c r="C721" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398616/user/icon/adaptable/f1?rev=110092163</t>
@@ -12233,7 +11576,6 @@
           <t>علی جاویدانه</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr"/>
       <c r="C722" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12249,7 +11591,6 @@
           <t>فریدون امینی</t>
         </is>
       </c>
-      <c r="B723" t="inlineStr"/>
       <c r="C723" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398684/user/icon/adaptable/f1?rev=110092760</t>
@@ -12265,7 +11606,6 @@
           <t>زهرا تندپور</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr"/>
       <c r="C724" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398685/user/icon/adaptable/f1?rev=110092768</t>
@@ -12281,7 +11621,6 @@
           <t>امیرعلی سیف الدین اصل</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr"/>
       <c r="C725" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12297,7 +11636,6 @@
           <t>محمدرضا کیوانپور</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr"/>
       <c r="C726" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12313,7 +11651,6 @@
           <t>سید علی غضنفری</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr"/>
       <c r="C727" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398735/user/icon/adaptable/f1?rev=110177823</t>
@@ -12329,7 +11666,6 @@
           <t>پژمان لطفی کامران</t>
         </is>
       </c>
-      <c r="B728" t="inlineStr"/>
       <c r="C728" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12345,7 +11681,6 @@
           <t>حسین فاتحی</t>
         </is>
       </c>
-      <c r="B729" t="inlineStr"/>
       <c r="C729" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398814/user/icon/adaptable/f1?rev=110093983</t>
@@ -12361,7 +11696,6 @@
           <t>محسن کلانتر</t>
         </is>
       </c>
-      <c r="B730" t="inlineStr"/>
       <c r="C730" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/398824/user/icon/adaptable/f1?rev=110094060</t>
@@ -12377,7 +11711,6 @@
           <t>حسن صادقی</t>
         </is>
       </c>
-      <c r="B731" t="inlineStr"/>
       <c r="C731" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12413,7 +11746,6 @@
           <t>جواد دمیرچی</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr"/>
       <c r="C733" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12429,7 +11761,6 @@
           <t>مصطفی محسنی</t>
         </is>
       </c>
-      <c r="B734" t="inlineStr"/>
       <c r="C734" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12445,7 +11776,6 @@
           <t>روح الله سوری</t>
         </is>
       </c>
-      <c r="B735" t="inlineStr"/>
       <c r="C735" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12461,7 +11791,6 @@
           <t>احمد ابراهیمی نژاد</t>
         </is>
       </c>
-      <c r="B736" t="inlineStr"/>
       <c r="C736" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12477,7 +11806,6 @@
           <t>محمد علی صفائیان</t>
         </is>
       </c>
-      <c r="B737" t="inlineStr"/>
       <c r="C737" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12493,7 +11821,6 @@
           <t>مصطفی خانزادی</t>
         </is>
       </c>
-      <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/399136/user/icon/adaptable/f1?rev=110097851</t>
@@ -12509,7 +11836,6 @@
           <t>روزبه نوحی حفظ اباد</t>
         </is>
       </c>
-      <c r="B739" t="inlineStr"/>
       <c r="C739" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/399197/user/icon/adaptable/f1?rev=110098546</t>
@@ -12525,7 +11851,6 @@
           <t>منیره گنجعلی</t>
         </is>
       </c>
-      <c r="B740" t="inlineStr"/>
       <c r="C740" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12561,7 +11886,6 @@
           <t>محمد جعفر هدایتی</t>
         </is>
       </c>
-      <c r="B742" t="inlineStr"/>
       <c r="C742" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12577,7 +11901,6 @@
           <t>زهرا تند پور</t>
         </is>
       </c>
-      <c r="B743" t="inlineStr"/>
       <c r="C743" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12593,7 +11916,6 @@
           <t>امیر بهرامی پناه</t>
         </is>
       </c>
-      <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12609,7 +11931,6 @@
           <t>محمد بیات</t>
         </is>
       </c>
-      <c r="B745" t="inlineStr"/>
       <c r="C745" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12625,7 +11946,6 @@
           <t>سید باقر حسینی</t>
         </is>
       </c>
-      <c r="B746" t="inlineStr"/>
       <c r="C746" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/399909/user/icon/adaptable/f1?rev=110106582</t>
@@ -12641,7 +11961,6 @@
           <t>اکرم نیرنیا</t>
         </is>
       </c>
-      <c r="B747" t="inlineStr"/>
       <c r="C747" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/399912/user/icon/adaptable/f1?rev=110106610</t>
@@ -12657,7 +11976,6 @@
           <t>محمدرضا عدل پرور</t>
         </is>
       </c>
-      <c r="B748" t="inlineStr"/>
       <c r="C748" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12673,7 +11991,6 @@
           <t>حامی تورجی زاده</t>
         </is>
       </c>
-      <c r="B749" t="inlineStr"/>
       <c r="C749" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12689,7 +12006,6 @@
           <t>داود عرب خابوری</t>
         </is>
       </c>
-      <c r="B750" t="inlineStr"/>
       <c r="C750" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/400120/user/icon/adaptable/f1?rev=110111500</t>
@@ -12705,7 +12021,6 @@
           <t>علی اله وردی</t>
         </is>
       </c>
-      <c r="B751" t="inlineStr"/>
       <c r="C751" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/400131/user/icon/adaptable/f1?rev=110111548</t>
@@ -12721,7 +12036,6 @@
           <t>یحیی پالیزدار</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr"/>
       <c r="C752" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12737,7 +12051,6 @@
           <t>محمد هاشمی نژاد</t>
         </is>
       </c>
-      <c r="B753" t="inlineStr"/>
       <c r="C753" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/400883/user/icon/adaptable/f1?rev=110125697</t>
@@ -12753,7 +12066,6 @@
           <t>حمید سیفی</t>
         </is>
       </c>
-      <c r="B754" t="inlineStr"/>
       <c r="C754" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401030/user/icon/adaptable/f1?rev=110129052</t>
@@ -12769,7 +12081,6 @@
           <t>سیدمجید مفیدی شمیرانی</t>
         </is>
       </c>
-      <c r="B755" t="inlineStr"/>
       <c r="C755" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401040/user/icon/adaptable/f1?rev=110129131</t>
@@ -12785,7 +12096,6 @@
           <t>رضا پاکت چی</t>
         </is>
       </c>
-      <c r="B756" t="inlineStr"/>
       <c r="C756" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12801,7 +12111,6 @@
           <t>محمد خدابخش</t>
         </is>
       </c>
-      <c r="B757" t="inlineStr"/>
       <c r="C757" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12817,7 +12126,6 @@
           <t>علی رضا مصلح تهرانی</t>
         </is>
       </c>
-      <c r="B758" t="inlineStr"/>
       <c r="C758" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401160/user/icon/adaptable/f1?rev=110131216</t>
@@ -12833,7 +12141,6 @@
           <t>حمیدرضا پورسعید</t>
         </is>
       </c>
-      <c r="B759" t="inlineStr"/>
       <c r="C759" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12849,7 +12156,6 @@
           <t>حمید آلادپوش</t>
         </is>
       </c>
-      <c r="B760" t="inlineStr"/>
       <c r="C760" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12865,7 +12171,6 @@
           <t>محسن وفامهر</t>
         </is>
       </c>
-      <c r="B761" t="inlineStr"/>
       <c r="C761" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12881,7 +12186,6 @@
           <t>حمیدرضا عظمتی</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12897,7 +12201,6 @@
           <t>غلامرضا جاپلقی</t>
         </is>
       </c>
-      <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12913,7 +12216,6 @@
           <t>نصور باقری</t>
         </is>
       </c>
-      <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12929,7 +12231,6 @@
           <t>منوچهر منطقی</t>
         </is>
       </c>
-      <c r="B765" t="inlineStr"/>
       <c r="C765" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12945,7 +12246,6 @@
           <t>فرهنگ مظفر</t>
         </is>
       </c>
-      <c r="B766" t="inlineStr"/>
       <c r="C766" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401681/user/icon/adaptable/f1?rev=110137428</t>
@@ -12961,7 +12261,6 @@
           <t>سید محمد رضا میلانی</t>
         </is>
       </c>
-      <c r="B767" t="inlineStr"/>
       <c r="C767" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401743/user/icon/adaptable/f1?rev=110140284</t>
@@ -12977,7 +12276,6 @@
           <t>علیرضا اژدری</t>
         </is>
       </c>
-      <c r="B768" t="inlineStr"/>
       <c r="C768" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -12993,7 +12291,6 @@
           <t>رضوان عابدینی</t>
         </is>
       </c>
-      <c r="B769" t="inlineStr"/>
       <c r="C769" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401819/user/icon/adaptable/f1?rev=110141730</t>
@@ -13009,7 +12306,6 @@
           <t>احمد غلامی</t>
         </is>
       </c>
-      <c r="B770" t="inlineStr"/>
       <c r="C770" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/401971/user/icon/adaptable/f1?rev=110144441</t>
@@ -13025,7 +12321,6 @@
           <t>علی کاوه</t>
         </is>
       </c>
-      <c r="B771" t="inlineStr"/>
       <c r="C771" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/402125/user/icon/adaptable/f1?rev=110147027</t>
@@ -13041,7 +12336,6 @@
           <t>محمدعلی اکبرنیا</t>
         </is>
       </c>
-      <c r="B772" t="inlineStr"/>
       <c r="C772" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13057,7 +12351,6 @@
           <t>علیرضا آفری</t>
         </is>
       </c>
-      <c r="B773" t="inlineStr"/>
       <c r="C773" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13073,7 +12366,6 @@
           <t>غلامحسین معماریان</t>
         </is>
       </c>
-      <c r="B774" t="inlineStr"/>
       <c r="C774" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/402673/user/icon/adaptable/f1?rev=110156781</t>
@@ -13089,7 +12381,6 @@
           <t>رباب بهادری</t>
         </is>
       </c>
-      <c r="B775" t="inlineStr"/>
       <c r="C775" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/402734/user/icon/adaptable/f1?rev=110158880</t>
@@ -13105,7 +12396,6 @@
           <t>شهرزاد اسماعیلی</t>
         </is>
       </c>
-      <c r="B776" t="inlineStr"/>
       <c r="C776" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/403059/user/icon/adaptable/f1?rev=110166169</t>
@@ -13121,7 +12411,6 @@
           <t>حمیدرضا عابدی</t>
         </is>
       </c>
-      <c r="B777" t="inlineStr"/>
       <c r="C777" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13137,7 +12426,6 @@
           <t>علیرضا علی اکبر</t>
         </is>
       </c>
-      <c r="B778" t="inlineStr"/>
       <c r="C778" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13153,7 +12441,6 @@
           <t>علی محمد صالح</t>
         </is>
       </c>
-      <c r="B779" t="inlineStr"/>
       <c r="C779" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/403635/user/icon/adaptable/f1?rev=110183634</t>
@@ -13169,7 +12456,6 @@
           <t>رسول احمدی</t>
         </is>
       </c>
-      <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13185,7 +12471,6 @@
           <t>مجید نوروزی</t>
         </is>
       </c>
-      <c r="B781" t="inlineStr"/>
       <c r="C781" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/403917/user/icon/adaptable/f1?rev=110190466</t>
@@ -13201,7 +12486,6 @@
           <t>رضا محمد حسنی</t>
         </is>
       </c>
-      <c r="B782" t="inlineStr"/>
       <c r="C782" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13217,7 +12501,6 @@
           <t>رضا سیف</t>
         </is>
       </c>
-      <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/404170/user/icon/adaptable/f1?rev=111673154</t>
@@ -13233,7 +12516,6 @@
           <t>میترا غفوریان</t>
         </is>
       </c>
-      <c r="B784" t="inlineStr"/>
       <c r="C784" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/404776/user/icon/adaptable/f1?rev=110212924</t>
@@ -13249,7 +12531,6 @@
           <t>علی ذبیح ا... پور</t>
         </is>
       </c>
-      <c r="B785" t="inlineStr"/>
       <c r="C785" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13265,7 +12546,6 @@
           <t>عباس امتعلی</t>
         </is>
       </c>
-      <c r="B786" t="inlineStr"/>
       <c r="C786" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/405341/user/icon/adaptable/f1?rev=110227180</t>
@@ -13281,7 +12561,6 @@
           <t>احمد متقی زاده</t>
         </is>
       </c>
-      <c r="B787" t="inlineStr"/>
       <c r="C787" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13297,7 +12576,6 @@
           <t>شایان حسین صراف</t>
         </is>
       </c>
-      <c r="B788" t="inlineStr"/>
       <c r="C788" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/406362/user/icon/adaptable/f1?rev=110258213</t>
@@ -13313,7 +12591,6 @@
           <t>هادی حسن زاده شوئیلی</t>
         </is>
       </c>
-      <c r="B789" t="inlineStr"/>
       <c r="C789" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/407205/user/icon/adaptable/f1?rev=110289237</t>
@@ -13329,7 +12606,6 @@
           <t>زینب مولایی</t>
         </is>
       </c>
-      <c r="B790" t="inlineStr"/>
       <c r="C790" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/408358/user/icon/adaptable/f1?rev=110328414</t>
@@ -13345,7 +12621,6 @@
           <t>مرتضی هاشم پور</t>
         </is>
       </c>
-      <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/409467/user/icon/adaptable/f1?rev=110365370</t>
@@ -13361,7 +12636,6 @@
           <t>مقداد میرابی نوش آبادی</t>
         </is>
       </c>
-      <c r="B792" t="inlineStr"/>
       <c r="C792" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13377,7 +12651,6 @@
           <t>همایون عریضی اصفهانی</t>
         </is>
       </c>
-      <c r="B793" t="inlineStr"/>
       <c r="C793" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/411550/user/icon/adaptable/f1?rev=110551909</t>
@@ -13393,7 +12666,6 @@
           <t>اکرم نیرنیا</t>
         </is>
       </c>
-      <c r="B794" t="inlineStr"/>
       <c r="C794" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13409,7 +12681,6 @@
           <t>محمد صادق عسگری</t>
         </is>
       </c>
-      <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/412703/user/icon/adaptable/f1?rev=110860132</t>
@@ -13425,7 +12696,6 @@
           <t>علی اشرفی پیامن</t>
         </is>
       </c>
-      <c r="B796" t="inlineStr"/>
       <c r="C796" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/412830/user/icon/adaptable/f1?rev=110880836</t>
@@ -13441,7 +12711,6 @@
           <t>سیده نغمه میری آشتیانی</t>
         </is>
       </c>
-      <c r="B797" t="inlineStr"/>
       <c r="C797" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/412911/user/icon/adaptable/f1?rev=110885384</t>
@@ -13457,7 +12726,6 @@
           <t>محسن دهقانی تفتی</t>
         </is>
       </c>
-      <c r="B798" t="inlineStr"/>
       <c r="C798" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13473,7 +12741,6 @@
           <t>کیهان زرین قلمی</t>
         </is>
       </c>
-      <c r="B799" t="inlineStr"/>
       <c r="C799" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/413311/user/icon/adaptable/f1?rev=110913638</t>
@@ -13489,7 +12756,6 @@
           <t>حسین مهرجو</t>
         </is>
       </c>
-      <c r="B800" t="inlineStr"/>
       <c r="C800" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/413777/user/icon/adaptable/f1?rev=110998853</t>
@@ -13505,7 +12771,6 @@
           <t>بهروز حکیما</t>
         </is>
       </c>
-      <c r="B801" t="inlineStr"/>
       <c r="C801" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/414074/user/icon/adaptable/f1?rev=111070999</t>
@@ -13541,7 +12806,6 @@
           <t>محمد سرتیپی</t>
         </is>
       </c>
-      <c r="B803" t="inlineStr"/>
       <c r="C803" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13557,7 +12821,6 @@
           <t>حبیب الله اقتصادی آذر</t>
         </is>
       </c>
-      <c r="B804" t="inlineStr"/>
       <c r="C804" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/414407/user/icon/adaptable/f1?rev=111136397</t>
@@ -13573,7 +12836,6 @@
           <t>زهرا حدادنژاد</t>
         </is>
       </c>
-      <c r="B805" t="inlineStr"/>
       <c r="C805" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/414503/user/icon/adaptable/f1?rev=111579911</t>
@@ -13589,7 +12851,6 @@
           <t>راضیه کشتمند</t>
         </is>
       </c>
-      <c r="B806" t="inlineStr"/>
       <c r="C806" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/414534/user/icon/adaptable/f1?rev=111146179</t>
@@ -13625,7 +12886,6 @@
           <t>فرزانه کریمی نژاد</t>
         </is>
       </c>
-      <c r="B808" t="inlineStr"/>
       <c r="C808" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13641,7 +12901,6 @@
           <t>مسعود اسم خانی</t>
         </is>
       </c>
-      <c r="B809" t="inlineStr"/>
       <c r="C809" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13657,7 +12916,6 @@
           <t>گل آذین طاهرآبادی</t>
         </is>
       </c>
-      <c r="B810" t="inlineStr"/>
       <c r="C810" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13673,7 +12931,6 @@
           <t>حمیدرضا کاظم پور</t>
         </is>
       </c>
-      <c r="B811" t="inlineStr"/>
       <c r="C811" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13689,7 +12946,6 @@
           <t>محمدمهدی شمس</t>
         </is>
       </c>
-      <c r="B812" t="inlineStr"/>
       <c r="C812" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/415883/user/icon/adaptable/f1?rev=111212571</t>
@@ -13705,7 +12961,6 @@
           <t>ریحانه بهرامیان</t>
         </is>
       </c>
-      <c r="B813" t="inlineStr"/>
       <c r="C813" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13721,7 +12976,6 @@
           <t>رضا محمدحسنی</t>
         </is>
       </c>
-      <c r="B814" t="inlineStr"/>
       <c r="C814" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/416211/user/icon/adaptable/f1?rev=111222936</t>
@@ -13737,7 +12991,6 @@
           <t>ناصر پرتوی شبستری</t>
         </is>
       </c>
-      <c r="B815" t="inlineStr"/>
       <c r="C815" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13753,7 +13006,6 @@
           <t>علی حاجی آقا بزرگی امیری</t>
         </is>
       </c>
-      <c r="B816" t="inlineStr"/>
       <c r="C816" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13769,7 +13021,6 @@
           <t>مریم حبیبی</t>
         </is>
       </c>
-      <c r="B817" t="inlineStr"/>
       <c r="C817" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/417466/user/icon/adaptable/f1?rev=111239624</t>
@@ -13785,7 +13036,6 @@
           <t>حسین راعی</t>
         </is>
       </c>
-      <c r="B818" t="inlineStr"/>
       <c r="C818" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/417526/user/icon/adaptable/f1?rev=111241257</t>
@@ -13801,7 +13051,6 @@
           <t>محمد علی آبادی</t>
         </is>
       </c>
-      <c r="B819" t="inlineStr"/>
       <c r="C819" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/417826/user/icon/adaptable/f1?rev=111254288</t>
@@ -13817,7 +13066,6 @@
           <t>مینا نظیفی</t>
         </is>
       </c>
-      <c r="B820" t="inlineStr"/>
       <c r="C820" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/418075/user/icon/adaptable/f1?rev=111275736</t>
@@ -13833,7 +13081,6 @@
           <t>قاسم مبینی کیا</t>
         </is>
       </c>
-      <c r="B821" t="inlineStr"/>
       <c r="C821" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/418153/user/icon/adaptable/f1?rev=111280874</t>
@@ -13869,7 +13116,6 @@
           <t>پویان ایار</t>
         </is>
       </c>
-      <c r="B823" t="inlineStr"/>
       <c r="C823" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/418688/user/icon/adaptable/f1?rev=111319312</t>
@@ -13885,7 +13131,6 @@
           <t>سیروس سعادت فومنی</t>
         </is>
       </c>
-      <c r="B824" t="inlineStr"/>
       <c r="C824" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/418966/user/icon/adaptable/f1?rev=112018717</t>
@@ -13901,7 +13146,6 @@
           <t>حسین آقاجانی</t>
         </is>
       </c>
-      <c r="B825" t="inlineStr"/>
       <c r="C825" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/438772/user/icon/adaptable/f1?rev=111383327</t>
@@ -13917,7 +13161,6 @@
           <t>شهاب نوروزیان علم</t>
         </is>
       </c>
-      <c r="B826" t="inlineStr"/>
       <c r="C826" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/439509/user/icon/adaptable/f1?rev=111375201</t>
@@ -13933,7 +13176,6 @@
           <t>حسن ملکی تبار</t>
         </is>
       </c>
-      <c r="B827" t="inlineStr"/>
       <c r="C827" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/439563/user/icon/adaptable/f1?rev=111375235</t>
@@ -13949,7 +13191,6 @@
           <t>رحیم احسانی</t>
         </is>
       </c>
-      <c r="B828" t="inlineStr"/>
       <c r="C828" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -13965,7 +13206,6 @@
           <t>اسماعیل شیعه</t>
         </is>
       </c>
-      <c r="B829" t="inlineStr"/>
       <c r="C829" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/440252/user/icon/adaptable/f1?rev=111376413</t>
@@ -13981,7 +13221,6 @@
           <t>اکرم نیرنیا</t>
         </is>
       </c>
-      <c r="B830" t="inlineStr"/>
       <c r="C830" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/440291/user/icon/adaptable/f1?rev=111376534</t>
@@ -13997,7 +13236,6 @@
           <t>پیمان اخوان</t>
         </is>
       </c>
-      <c r="B831" t="inlineStr"/>
       <c r="C831" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14013,7 +13251,6 @@
           <t>نفیسه شمس</t>
         </is>
       </c>
-      <c r="B832" t="inlineStr"/>
       <c r="C832" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/440404/user/icon/adaptable/f1?rev=111376824</t>
@@ -14029,7 +13266,6 @@
           <t>محمد آبائی</t>
         </is>
       </c>
-      <c r="B833" t="inlineStr"/>
       <c r="C833" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14045,7 +13281,6 @@
           <t>علیرضا کریمی صارمی</t>
         </is>
       </c>
-      <c r="B834" t="inlineStr"/>
       <c r="C834" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14061,7 +13296,6 @@
           <t>اساتید دانشکده کامپیوتر</t>
         </is>
       </c>
-      <c r="B835" t="inlineStr"/>
       <c r="C835" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14077,7 +13311,6 @@
           <t>محسن اداوی</t>
         </is>
       </c>
-      <c r="B836" t="inlineStr"/>
       <c r="C836" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14093,7 +13326,6 @@
           <t>سیدمجتبی حسینی نسب</t>
         </is>
       </c>
-      <c r="B837" t="inlineStr"/>
       <c r="C837" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/440642/user/icon/adaptable/f1?rev=111377463</t>
@@ -14109,7 +13341,6 @@
           <t>منوچهر خاصی</t>
         </is>
       </c>
-      <c r="B838" t="inlineStr"/>
       <c r="C838" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14125,7 +13356,6 @@
           <t>محمد منتظری</t>
         </is>
       </c>
-      <c r="B839" t="inlineStr"/>
       <c r="C839" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14141,7 +13371,6 @@
           <t>مهدی کبودی</t>
         </is>
       </c>
-      <c r="B840" t="inlineStr"/>
       <c r="C840" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14177,7 +13406,6 @@
           <t>سید همایون گلستانه</t>
         </is>
       </c>
-      <c r="B842" t="inlineStr"/>
       <c r="C842" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14193,7 +13421,6 @@
           <t>مرتضی خلیلی</t>
         </is>
       </c>
-      <c r="B843" t="inlineStr"/>
       <c r="C843" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14209,7 +13436,6 @@
           <t>محمدحسین قائمی نیا</t>
         </is>
       </c>
-      <c r="B844" t="inlineStr"/>
       <c r="C844" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/441443/user/icon/adaptable/f1?rev=111386192</t>
@@ -14225,7 +13451,6 @@
           <t>محسن دریابیگی</t>
         </is>
       </c>
-      <c r="B845" t="inlineStr"/>
       <c r="C845" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14241,7 +13466,6 @@
           <t>هادی برقی</t>
         </is>
       </c>
-      <c r="B846" t="inlineStr"/>
       <c r="C846" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14257,7 +13481,6 @@
           <t>صادق رستم نیا</t>
         </is>
       </c>
-      <c r="B847" t="inlineStr"/>
       <c r="C847" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/441550/user/icon/adaptable/f1?rev=111386623</t>
@@ -14273,7 +13496,6 @@
           <t>سید رضا مرتضایی</t>
         </is>
       </c>
-      <c r="B848" t="inlineStr"/>
       <c r="C848" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/441594/user/icon/adaptable/f1?rev=111387485</t>
@@ -14289,7 +13511,6 @@
           <t>محسن تدین</t>
         </is>
       </c>
-      <c r="B849" t="inlineStr"/>
       <c r="C849" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14305,7 +13526,6 @@
           <t>ناصر براتی</t>
         </is>
       </c>
-      <c r="B850" t="inlineStr"/>
       <c r="C850" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14321,7 +13541,6 @@
           <t>محمدرضا ریاضی کشه</t>
         </is>
       </c>
-      <c r="B851" t="inlineStr"/>
       <c r="C851" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14337,7 +13556,6 @@
           <t>آتس سا امیرکبیریان</t>
         </is>
       </c>
-      <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14353,7 +13571,6 @@
           <t>شمس نوبخت دودران</t>
         </is>
       </c>
-      <c r="B853" t="inlineStr"/>
       <c r="C853" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14369,7 +13586,6 @@
           <t>علی مرادی علمدارلو</t>
         </is>
       </c>
-      <c r="B854" t="inlineStr"/>
       <c r="C854" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14385,7 +13601,6 @@
           <t>مسعود سیری</t>
         </is>
       </c>
-      <c r="B855" t="inlineStr"/>
       <c r="C855" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14401,7 +13616,6 @@
           <t>اسماعیل قادری فر</t>
         </is>
       </c>
-      <c r="B856" t="inlineStr"/>
       <c r="C856" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14417,7 +13631,6 @@
           <t>حسین غفاریان</t>
         </is>
       </c>
-      <c r="B857" t="inlineStr"/>
       <c r="C857" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14433,7 +13646,6 @@
           <t>مصطفی نورالدین</t>
         </is>
       </c>
-      <c r="B858" t="inlineStr"/>
       <c r="C858" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/442350/user/icon/adaptable/f1?rev=111395576</t>
@@ -14449,7 +13661,6 @@
           <t>وحیدرضا سلامت</t>
         </is>
       </c>
-      <c r="B859" t="inlineStr"/>
       <c r="C859" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14465,7 +13676,6 @@
           <t>سولماز حیدری</t>
         </is>
       </c>
-      <c r="B860" t="inlineStr"/>
       <c r="C860" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14501,7 +13711,6 @@
           <t>ناصر باقری مقدم</t>
         </is>
       </c>
-      <c r="B862" t="inlineStr"/>
       <c r="C862" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14517,7 +13726,6 @@
           <t>زهرا بیرانوند</t>
         </is>
       </c>
-      <c r="B863" t="inlineStr"/>
       <c r="C863" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/442837/user/icon/adaptable/f1?rev=111402836</t>
@@ -14533,7 +13741,6 @@
           <t>سپیده سعیدزاده</t>
         </is>
       </c>
-      <c r="B864" t="inlineStr"/>
       <c r="C864" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/442839/user/icon/adaptable/f1?rev=111402850</t>
@@ -14549,7 +13756,6 @@
           <t>میثم جعفری اسکندری</t>
         </is>
       </c>
-      <c r="B865" t="inlineStr"/>
       <c r="C865" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14565,7 +13771,6 @@
           <t>فرهاد آزرمی</t>
         </is>
       </c>
-      <c r="B866" t="inlineStr"/>
       <c r="C866" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14581,7 +13786,6 @@
           <t>مهتاب خلیلی فر</t>
         </is>
       </c>
-      <c r="B867" t="inlineStr"/>
       <c r="C867" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/442980/user/icon/adaptable/f1?rev=112883890</t>
@@ -14597,7 +13801,6 @@
           <t>کیانوش سوزنچی</t>
         </is>
       </c>
-      <c r="B868" t="inlineStr"/>
       <c r="C868" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14613,7 +13816,6 @@
           <t>مولا میری</t>
         </is>
       </c>
-      <c r="B869" t="inlineStr"/>
       <c r="C869" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14629,7 +13831,6 @@
           <t>امیرحامد رضائی</t>
         </is>
       </c>
-      <c r="B870" t="inlineStr"/>
       <c r="C870" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14645,7 +13846,6 @@
           <t>سیداصغر ابن الرسول</t>
         </is>
       </c>
-      <c r="B871" t="inlineStr"/>
       <c r="C871" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14661,7 +13861,6 @@
           <t>محمدرضا زاهدی</t>
         </is>
       </c>
-      <c r="B872" t="inlineStr"/>
       <c r="C872" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14677,7 +13876,6 @@
           <t>امیرمحسن کریمی مجد</t>
         </is>
       </c>
-      <c r="B873" t="inlineStr"/>
       <c r="C873" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/444658/user/icon/adaptable/f1?rev=111436057</t>
@@ -14693,7 +13891,6 @@
           <t>غزال راهب</t>
         </is>
       </c>
-      <c r="B874" t="inlineStr"/>
       <c r="C874" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14709,7 +13906,6 @@
           <t>سیامک بدیعی</t>
         </is>
       </c>
-      <c r="B875" t="inlineStr"/>
       <c r="C875" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14725,7 +13921,6 @@
           <t>معصومه علیپور</t>
         </is>
       </c>
-      <c r="B876" t="inlineStr"/>
       <c r="C876" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14741,7 +13936,6 @@
           <t>عطیه غفوری</t>
         </is>
       </c>
-      <c r="B877" t="inlineStr"/>
       <c r="C877" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14757,7 +13951,6 @@
           <t>سیدامیر منصوری</t>
         </is>
       </c>
-      <c r="B878" t="inlineStr"/>
       <c r="C878" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14793,7 +13986,6 @@
           <t>حمیدرضا عابدی</t>
         </is>
       </c>
-      <c r="B880" t="inlineStr"/>
       <c r="C880" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/446566/user/icon/adaptable/f1?rev=112092094</t>
@@ -14809,7 +14001,6 @@
           <t>علی اصغر شکری</t>
         </is>
       </c>
-      <c r="B881" t="inlineStr"/>
       <c r="C881" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14825,7 +14016,6 @@
           <t>فاطمه طاعتی اصیل</t>
         </is>
       </c>
-      <c r="B882" t="inlineStr"/>
       <c r="C882" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14841,7 +14031,6 @@
           <t>نادر مصباح</t>
         </is>
       </c>
-      <c r="B883" t="inlineStr"/>
       <c r="C883" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/448550/user/icon/adaptable/f1?rev=111544587</t>
@@ -14857,7 +14046,6 @@
           <t>مریم محمدی</t>
         </is>
       </c>
-      <c r="B884" t="inlineStr"/>
       <c r="C884" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/448828/user/icon/adaptable/f1?rev=111550336</t>
@@ -14873,7 +14061,6 @@
           <t>محسن دارچینی تبریزی</t>
         </is>
       </c>
-      <c r="B885" t="inlineStr"/>
       <c r="C885" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/449112/user/icon/adaptable/f1?rev=111674883</t>
@@ -14889,7 +14076,6 @@
           <t>بتول اکرمی</t>
         </is>
       </c>
-      <c r="B886" t="inlineStr"/>
       <c r="C886" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/449853/user/icon/adaptable/f1?rev=111558338</t>
@@ -14905,7 +14091,6 @@
           <t>سعید محمدی نژاد</t>
         </is>
       </c>
-      <c r="B887" t="inlineStr"/>
       <c r="C887" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/450172/user/icon/adaptable/f1?rev=124556865</t>
@@ -14921,7 +14106,6 @@
           <t>آرش عبدی هجراندوست</t>
         </is>
       </c>
-      <c r="B888" t="inlineStr"/>
       <c r="C888" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -14937,7 +14121,6 @@
           <t>مطلب نیک نظر</t>
         </is>
       </c>
-      <c r="B889" t="inlineStr"/>
       <c r="C889" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/450776/user/icon/adaptable/f1?rev=111566504</t>
@@ -14953,7 +14136,6 @@
           <t>فرزانه شیخ السلام</t>
         </is>
       </c>
-      <c r="B890" t="inlineStr"/>
       <c r="C890" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/450861/user/icon/adaptable/f1?rev=111567485</t>
@@ -14969,7 +14151,6 @@
           <t>محبوبه مهربانی</t>
         </is>
       </c>
-      <c r="B891" t="inlineStr"/>
       <c r="C891" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/450965/user/icon/adaptable/f1?rev=111568977</t>
@@ -14985,7 +14166,6 @@
           <t>پویا ملاحی کلاهی</t>
         </is>
       </c>
-      <c r="B892" t="inlineStr"/>
       <c r="C892" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/451102/user/icon/adaptable/f1?rev=111570204</t>
@@ -15001,7 +14181,6 @@
           <t>فملا معمار زنجانی</t>
         </is>
       </c>
-      <c r="B893" t="inlineStr"/>
       <c r="C893" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/451459/user/icon/adaptable/f1?rev=111574480</t>
@@ -15017,7 +14196,6 @@
           <t>علی غفاری</t>
         </is>
       </c>
-      <c r="B894" t="inlineStr"/>
       <c r="C894" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15033,7 +14211,6 @@
           <t>فروغ مهندس پور</t>
         </is>
       </c>
-      <c r="B895" t="inlineStr"/>
       <c r="C895" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/452017/user/icon/adaptable/f1?rev=111585796</t>
@@ -15049,7 +14226,6 @@
           <t>جواد مشایخ</t>
         </is>
       </c>
-      <c r="B896" t="inlineStr"/>
       <c r="C896" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15085,7 +14261,6 @@
           <t>سید حسین میر معزی</t>
         </is>
       </c>
-      <c r="B898" t="inlineStr"/>
       <c r="C898" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15101,7 +14276,6 @@
           <t>آرش نوروزی</t>
         </is>
       </c>
-      <c r="B899" t="inlineStr"/>
       <c r="C899" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15117,7 +14291,6 @@
           <t>حنیف حیدری</t>
         </is>
       </c>
-      <c r="B900" t="inlineStr"/>
       <c r="C900" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15133,7 +14306,6 @@
           <t>نیک بخش جوادیان</t>
         </is>
       </c>
-      <c r="B901" t="inlineStr"/>
       <c r="C901" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15149,7 +14321,6 @@
           <t>رضا محسنی</t>
         </is>
       </c>
-      <c r="B902" t="inlineStr"/>
       <c r="C902" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15165,7 +14336,6 @@
           <t>محمد کاظم زاده</t>
         </is>
       </c>
-      <c r="B903" t="inlineStr"/>
       <c r="C903" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15181,7 +14351,6 @@
           <t>بهنام جیحانی</t>
         </is>
       </c>
-      <c r="B904" t="inlineStr"/>
       <c r="C904" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15197,7 +14366,6 @@
           <t>مونا صحرایی اردکانی</t>
         </is>
       </c>
-      <c r="B905" t="inlineStr"/>
       <c r="C905" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15213,7 +14381,6 @@
           <t>محمد اسلامی</t>
         </is>
       </c>
-      <c r="B906" t="inlineStr"/>
       <c r="C906" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15229,7 +14396,6 @@
           <t>علی اکبر خمیجانی فراهانی</t>
         </is>
       </c>
-      <c r="B907" t="inlineStr"/>
       <c r="C907" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15245,7 +14411,6 @@
           <t>عبدالستار صفائی</t>
         </is>
       </c>
-      <c r="B908" t="inlineStr"/>
       <c r="C908" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15261,7 +14426,6 @@
           <t>نصراله پاک نیت</t>
         </is>
       </c>
-      <c r="B909" t="inlineStr"/>
       <c r="C909" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15277,7 +14441,6 @@
           <t>آرش شجاعی</t>
         </is>
       </c>
-      <c r="B910" t="inlineStr"/>
       <c r="C910" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15293,7 +14456,6 @@
           <t>عباس افتخاری</t>
         </is>
       </c>
-      <c r="B911" t="inlineStr"/>
       <c r="C911" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15309,7 +14471,6 @@
           <t>محمدجواد امامی اسکاردی</t>
         </is>
       </c>
-      <c r="B912" t="inlineStr"/>
       <c r="C912" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15325,7 +14486,6 @@
           <t>علیرضا مسیبی</t>
         </is>
       </c>
-      <c r="B913" t="inlineStr"/>
       <c r="C913" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/468584/user/icon/adaptable/f1?rev=112436031</t>
@@ -15341,7 +14501,6 @@
           <t>مهدی داراب</t>
         </is>
       </c>
-      <c r="B914" t="inlineStr"/>
       <c r="C914" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/470124/user/icon/adaptable/f1?rev=112560918</t>
@@ -15357,7 +14516,6 @@
           <t>حدیث کریمی پور</t>
         </is>
       </c>
-      <c r="B915" t="inlineStr"/>
       <c r="C915" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15373,7 +14531,6 @@
           <t>سیدرضا علمی حسینی</t>
         </is>
       </c>
-      <c r="B916" t="inlineStr"/>
       <c r="C916" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/471066/user/icon/adaptable/f1?rev=112674967</t>
@@ -15389,7 +14546,6 @@
           <t>سیدمجتبی میرحسینی</t>
         </is>
       </c>
-      <c r="B917" t="inlineStr"/>
       <c r="C917" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/472596/user/icon/adaptable/f1?rev=112987485</t>
@@ -15405,7 +14561,6 @@
           <t>عباس قاهری</t>
         </is>
       </c>
-      <c r="B918" t="inlineStr"/>
       <c r="C918" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/473813/user/icon/adaptable/f1?rev=113254464</t>
@@ -15421,7 +14576,6 @@
           <t>وحید خطیبی</t>
         </is>
       </c>
-      <c r="B919" t="inlineStr"/>
       <c r="C919" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/474350/user/icon/adaptable/f1?rev=113567983</t>
@@ -15437,7 +14591,6 @@
           <t>فرشته اعظمی فر</t>
         </is>
       </c>
-      <c r="B920" t="inlineStr"/>
       <c r="C920" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/474418/user/icon/adaptable/f1?rev=113682367</t>
@@ -15453,7 +14606,6 @@
           <t>مسعود محفوظی</t>
         </is>
       </c>
-      <c r="B921" t="inlineStr"/>
       <c r="C921" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/474463/user/icon/adaptable/f1?rev=113720606</t>
@@ -15469,7 +14621,6 @@
           <t>مریم احمدزاده توفیقی</t>
         </is>
       </c>
-      <c r="B922" t="inlineStr"/>
       <c r="C922" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/474473/user/icon/adaptable/f1?rev=113736894</t>
@@ -15485,7 +14636,6 @@
           <t>شقایق چیت ساز</t>
         </is>
       </c>
-      <c r="B923" t="inlineStr"/>
       <c r="C923" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15501,7 +14651,6 @@
           <t>فاطمه ابوحمزه</t>
         </is>
       </c>
-      <c r="B924" t="inlineStr"/>
       <c r="C924" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15517,7 +14666,6 @@
           <t>محمدمهدی زمانی</t>
         </is>
       </c>
-      <c r="B925" t="inlineStr"/>
       <c r="C925" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15533,7 +14681,6 @@
           <t>اسمعیل اسفندیاری</t>
         </is>
       </c>
-      <c r="B926" t="inlineStr"/>
       <c r="C926" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15549,7 +14696,6 @@
           <t>محمد خالقی</t>
         </is>
       </c>
-      <c r="B927" t="inlineStr"/>
       <c r="C927" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15565,7 +14711,6 @@
           <t>لادن اعتضادی</t>
         </is>
       </c>
-      <c r="B928" t="inlineStr"/>
       <c r="C928" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15581,7 +14726,6 @@
           <t>عباس یگانه بختیاری</t>
         </is>
       </c>
-      <c r="B929" t="inlineStr"/>
       <c r="C929" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/514266/user/icon/adaptable/f1?rev=113955071</t>
@@ -15597,7 +14741,6 @@
           <t>آرش کیومرثی</t>
         </is>
       </c>
-      <c r="B930" t="inlineStr"/>
       <c r="C930" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15613,7 +14756,6 @@
           <t>میثم نریمانی</t>
         </is>
       </c>
-      <c r="B931" t="inlineStr"/>
       <c r="C931" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15629,7 +14771,6 @@
           <t>سیدعلی حسینی</t>
         </is>
       </c>
-      <c r="B932" t="inlineStr"/>
       <c r="C932" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15645,7 +14786,6 @@
           <t>سید فرهنگ فصیحی لنگرودی</t>
         </is>
       </c>
-      <c r="B933" t="inlineStr"/>
       <c r="C933" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15661,7 +14801,6 @@
           <t>محمد پیرداوری</t>
         </is>
       </c>
-      <c r="B934" t="inlineStr"/>
       <c r="C934" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15677,7 +14816,6 @@
           <t>وحید ناصحی فر</t>
         </is>
       </c>
-      <c r="B935" t="inlineStr"/>
       <c r="C935" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15693,7 +14831,6 @@
           <t>داود رزاقی</t>
         </is>
       </c>
-      <c r="B936" t="inlineStr"/>
       <c r="C936" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15709,7 +14846,6 @@
           <t>احمد شعبانی کلیشمی</t>
         </is>
       </c>
-      <c r="B937" t="inlineStr"/>
       <c r="C937" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15725,7 +14861,6 @@
           <t>مهدی شیبانی</t>
         </is>
       </c>
-      <c r="B938" t="inlineStr"/>
       <c r="C938" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15741,7 +14876,6 @@
           <t>امیر زند مقدم</t>
         </is>
       </c>
-      <c r="B939" t="inlineStr"/>
       <c r="C939" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15757,7 +14891,6 @@
           <t>قربانعلی دزواره</t>
         </is>
       </c>
-      <c r="B940" t="inlineStr"/>
       <c r="C940" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15773,7 +14906,6 @@
           <t>حسن فرخ زاد</t>
         </is>
       </c>
-      <c r="B941" t="inlineStr"/>
       <c r="C941" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/515940/user/icon/adaptable/f1?rev=115317192</t>
@@ -15789,7 +14921,6 @@
           <t>رضا نجاتی</t>
         </is>
       </c>
-      <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15805,7 +14936,6 @@
           <t>رحیم اصغری</t>
         </is>
       </c>
-      <c r="B943" t="inlineStr"/>
       <c r="C943" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15821,7 +14951,6 @@
           <t>میرشهرام صفری</t>
         </is>
       </c>
-      <c r="B944" t="inlineStr"/>
       <c r="C944" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15837,7 +14966,6 @@
           <t>بهروز محمود زاده</t>
         </is>
       </c>
-      <c r="B945" t="inlineStr"/>
       <c r="C945" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15853,7 +14981,6 @@
           <t>حمیدرضا نورعلیزاده</t>
         </is>
       </c>
-      <c r="B946" t="inlineStr"/>
       <c r="C946" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15869,7 +14996,6 @@
           <t>وحید رحمانی</t>
         </is>
       </c>
-      <c r="B947" t="inlineStr"/>
       <c r="C947" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15885,7 +15011,6 @@
           <t>مینا پویان مهر</t>
         </is>
       </c>
-      <c r="B948" t="inlineStr"/>
       <c r="C948" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15901,7 +15026,6 @@
           <t>محمد صادقی اول شهر</t>
         </is>
       </c>
-      <c r="B949" t="inlineStr"/>
       <c r="C949" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/517531/user/icon/adaptable/f1?rev=114796486</t>
@@ -15917,7 +15041,6 @@
           <t>محمد حسن داورزنی</t>
         </is>
       </c>
-      <c r="B950" t="inlineStr"/>
       <c r="C950" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15933,7 +15056,6 @@
           <t>امیرحسین خلیلی گرگانی</t>
         </is>
       </c>
-      <c r="B951" t="inlineStr"/>
       <c r="C951" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15949,7 +15071,6 @@
           <t>حمید نوحی</t>
         </is>
       </c>
-      <c r="B952" t="inlineStr"/>
       <c r="C952" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/518705/user/icon/adaptable/f1?rev=115707755</t>
@@ -15965,7 +15086,6 @@
           <t>پانته آ پیریه</t>
         </is>
       </c>
-      <c r="B953" t="inlineStr"/>
       <c r="C953" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/519259/user/icon/adaptable/f1?rev=115998181</t>
@@ -15981,7 +15101,6 @@
           <t>صلاح الدین مولانایی</t>
         </is>
       </c>
-      <c r="B954" t="inlineStr"/>
       <c r="C954" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -15997,7 +15116,6 @@
           <t>شهناز پورناصری</t>
         </is>
       </c>
-      <c r="B955" t="inlineStr"/>
       <c r="C955" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16013,7 +15131,6 @@
           <t>محمدصادق طاهری ریزی</t>
         </is>
       </c>
-      <c r="B956" t="inlineStr"/>
       <c r="C956" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16029,7 +15146,6 @@
           <t>معصومه دشت آبادی</t>
         </is>
       </c>
-      <c r="B957" t="inlineStr"/>
       <c r="C957" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16045,7 +15161,6 @@
           <t>پروانه رضاخانلی</t>
         </is>
       </c>
-      <c r="B958" t="inlineStr"/>
       <c r="C958" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16061,7 +15176,6 @@
           <t>آذر تحقیقی</t>
         </is>
       </c>
-      <c r="B959" t="inlineStr"/>
       <c r="C959" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16077,7 +15191,6 @@
           <t>امیرمحسن کریمی مجد</t>
         </is>
       </c>
-      <c r="B960" t="inlineStr"/>
       <c r="C960" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16113,7 +15226,6 @@
           <t>محمدمعین مهدویان شاد</t>
         </is>
       </c>
-      <c r="B962" t="inlineStr"/>
       <c r="C962" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16129,7 +15241,6 @@
           <t>سید محمد موسوی</t>
         </is>
       </c>
-      <c r="B963" t="inlineStr"/>
       <c r="C963" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/537033/user/icon/adaptable/f1?rev=120804093</t>
@@ -16145,7 +15256,6 @@
           <t>روح اله عشیری</t>
         </is>
       </c>
-      <c r="B964" t="inlineStr"/>
       <c r="C964" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/538580/user/icon/adaptable/f1?rev=120951509</t>
@@ -16161,7 +15271,6 @@
           <t>ابراهیم اردشیر لاریجانی</t>
         </is>
       </c>
-      <c r="B965" t="inlineStr"/>
       <c r="C965" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16197,7 +15306,6 @@
           <t>ناهید حیدری رامشه</t>
         </is>
       </c>
-      <c r="B967" t="inlineStr"/>
       <c r="C967" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16213,7 +15321,6 @@
           <t>مرتضی فرهودی</t>
         </is>
       </c>
-      <c r="B968" t="inlineStr"/>
       <c r="C968" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16229,7 +15336,6 @@
           <t>علیرضا نامی</t>
         </is>
       </c>
-      <c r="B969" t="inlineStr"/>
       <c r="C969" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16245,7 +15351,6 @@
           <t>سروش برادران</t>
         </is>
       </c>
-      <c r="B970" t="inlineStr"/>
       <c r="C970" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16261,7 +15366,6 @@
           <t>جواد انصاری</t>
         </is>
       </c>
-      <c r="B971" t="inlineStr"/>
       <c r="C971" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16277,7 +15381,6 @@
           <t>جواد مشایخ</t>
         </is>
       </c>
-      <c r="B972" t="inlineStr"/>
       <c r="C972" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/584010/user/icon/adaptable/f1?rev=121100605</t>
@@ -16293,7 +15396,6 @@
           <t>امیر سامان نور امین</t>
         </is>
       </c>
-      <c r="B973" t="inlineStr"/>
       <c r="C973" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/584013/user/icon/adaptable/f1?rev=121089897</t>
@@ -16309,7 +15411,6 @@
           <t>سیدمهدی حسینی دولت آبادی</t>
         </is>
       </c>
-      <c r="B974" t="inlineStr"/>
       <c r="C974" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16325,7 +15426,6 @@
           <t>سعید محمدزاده</t>
         </is>
       </c>
-      <c r="B975" t="inlineStr"/>
       <c r="C975" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/584181/user/icon/adaptable/f1?rev=120950349</t>
@@ -16341,7 +15441,6 @@
           <t>شعله گل محمدی نژادی</t>
         </is>
       </c>
-      <c r="B976" t="inlineStr"/>
       <c r="C976" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16357,7 +15456,6 @@
           <t>سید عباس محمدی</t>
         </is>
       </c>
-      <c r="B977" t="inlineStr"/>
       <c r="C977" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16373,7 +15471,6 @@
           <t>مهدی خرم</t>
         </is>
       </c>
-      <c r="B978" t="inlineStr"/>
       <c r="C978" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/584227/user/icon/adaptable/f1?rev=124839555</t>
@@ -16389,7 +15486,6 @@
           <t>سیده سحر زاهد علوی</t>
         </is>
       </c>
-      <c r="B979" t="inlineStr"/>
       <c r="C979" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16405,7 +15501,6 @@
           <t>سیدعلی قهاری</t>
         </is>
       </c>
-      <c r="B980" t="inlineStr"/>
       <c r="C980" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/584266/user/icon/adaptable/f1?rev=120951530</t>
@@ -16421,7 +15516,6 @@
           <t>مجتبی غفاری</t>
         </is>
       </c>
-      <c r="B981" t="inlineStr"/>
       <c r="C981" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16437,7 +15531,6 @@
           <t>مهدی نصیری سروی</t>
         </is>
       </c>
-      <c r="B982" t="inlineStr"/>
       <c r="C982" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/584306/user/icon/adaptable/f1?rev=120952423</t>
@@ -16453,7 +15546,6 @@
           <t>سعید بهزادی</t>
         </is>
       </c>
-      <c r="B983" t="inlineStr"/>
       <c r="C983" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16489,7 +15581,6 @@
           <t>سیدحسن موسوی</t>
         </is>
       </c>
-      <c r="B985" t="inlineStr"/>
       <c r="C985" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16505,7 +15596,6 @@
           <t>علیرضا محمدی</t>
         </is>
       </c>
-      <c r="B986" t="inlineStr"/>
       <c r="C986" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16521,7 +15611,6 @@
           <t>میثم عبداللهی</t>
         </is>
       </c>
-      <c r="B987" t="inlineStr"/>
       <c r="C987" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16537,7 +15626,6 @@
           <t>سیدحامد رستگار</t>
         </is>
       </c>
-      <c r="B988" t="inlineStr"/>
       <c r="C988" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16573,7 +15661,6 @@
           <t>محمدحسین نوروزی</t>
         </is>
       </c>
-      <c r="B990" t="inlineStr"/>
       <c r="C990" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16589,7 +15676,6 @@
           <t>محمدحسین تدین</t>
         </is>
       </c>
-      <c r="B991" t="inlineStr"/>
       <c r="C991" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16605,7 +15691,6 @@
           <t>سیده فاطمه نورانی</t>
         </is>
       </c>
-      <c r="B992" t="inlineStr"/>
       <c r="C992" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16621,7 +15706,6 @@
           <t>فائقه السادات مرتضوی مقدم</t>
         </is>
       </c>
-      <c r="B993" t="inlineStr"/>
       <c r="C993" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16637,7 +15721,6 @@
           <t>عباس آذری</t>
         </is>
       </c>
-      <c r="B994" t="inlineStr"/>
       <c r="C994" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16653,7 +15736,6 @@
           <t>احسان دهقانی</t>
         </is>
       </c>
-      <c r="B995" t="inlineStr"/>
       <c r="C995" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/588567/user/icon/adaptable/f1?rev=121061934</t>
@@ -16669,7 +15751,6 @@
           <t>مهدی معدولیت</t>
         </is>
       </c>
-      <c r="B996" t="inlineStr"/>
       <c r="C996" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16685,7 +15766,6 @@
           <t>ابوعلی گلزاری</t>
         </is>
       </c>
-      <c r="B997" t="inlineStr"/>
       <c r="C997" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16701,7 +15781,6 @@
           <t>محسن کافی</t>
         </is>
       </c>
-      <c r="B998" t="inlineStr"/>
       <c r="C998" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16717,7 +15796,6 @@
           <t>روح اله نوری</t>
         </is>
       </c>
-      <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16733,7 +15811,6 @@
           <t>سروش برادران</t>
         </is>
       </c>
-      <c r="B1000" t="inlineStr"/>
       <c r="C1000" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/601521/user/icon/adaptable/f1?rev=122431130</t>
@@ -16749,7 +15826,6 @@
           <t>آرش کیومرثی</t>
         </is>
       </c>
-      <c r="B1001" t="inlineStr"/>
       <c r="C1001" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/604529/user/icon/adaptable/f1?rev=123068088</t>
@@ -16765,7 +15841,6 @@
           <t>مصطفی سلحشور</t>
         </is>
       </c>
-      <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16781,7 +15856,6 @@
           <t>عبدالرضا اسکندری</t>
         </is>
       </c>
-      <c r="B1003" t="inlineStr"/>
       <c r="C1003" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16797,7 +15871,6 @@
           <t>نادر روزرخ</t>
         </is>
       </c>
-      <c r="B1004" t="inlineStr"/>
       <c r="C1004" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16813,7 +15886,6 @@
           <t>حسین اسفندیار</t>
         </is>
       </c>
-      <c r="B1005" t="inlineStr"/>
       <c r="C1005" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16829,7 +15901,6 @@
           <t>محمد شیروانی</t>
         </is>
       </c>
-      <c r="B1006" t="inlineStr"/>
       <c r="C1006" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16845,7 +15916,6 @@
           <t>سیدابوالفضل حسینی زاده</t>
         </is>
       </c>
-      <c r="B1007" t="inlineStr"/>
       <c r="C1007" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16861,7 +15931,6 @@
           <t>محمدرضا عمادیان مهر</t>
         </is>
       </c>
-      <c r="B1008" t="inlineStr"/>
       <c r="C1008" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16877,7 +15946,6 @@
           <t>مرتضی فیروزی</t>
         </is>
       </c>
-      <c r="B1009" t="inlineStr"/>
       <c r="C1009" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16893,7 +15961,6 @@
           <t>یاسر محمودی ابیانه</t>
         </is>
       </c>
-      <c r="B1010" t="inlineStr"/>
       <c r="C1010" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16909,7 +15976,6 @@
           <t>محمد شهبازی</t>
         </is>
       </c>
-      <c r="B1011" t="inlineStr"/>
       <c r="C1011" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16945,7 +16011,6 @@
           <t>نرگس حسین مردی</t>
         </is>
       </c>
-      <c r="B1013" t="inlineStr"/>
       <c r="C1013" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16961,7 +16026,6 @@
           <t>مجید جلیلی</t>
         </is>
       </c>
-      <c r="B1014" t="inlineStr"/>
       <c r="C1014" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -16977,7 +16041,6 @@
           <t>نصیبه سعیدزاده امیری</t>
         </is>
       </c>
-      <c r="B1015" t="inlineStr"/>
       <c r="C1015" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/668683/user/icon/adaptable/f1?rev=126019310</t>
@@ -16993,7 +16056,6 @@
           <t>همایون یوسفی</t>
         </is>
       </c>
-      <c r="B1016" t="inlineStr"/>
       <c r="C1016" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17009,7 +16071,6 @@
           <t>عطا صادقی نژاد</t>
         </is>
       </c>
-      <c r="B1017" t="inlineStr"/>
       <c r="C1017" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17025,7 +16086,6 @@
           <t>خیبر دشتیان</t>
         </is>
       </c>
-      <c r="B1018" t="inlineStr"/>
       <c r="C1018" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17041,7 +16101,6 @@
           <t>رضوان رضائی</t>
         </is>
       </c>
-      <c r="B1019" t="inlineStr"/>
       <c r="C1019" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17057,7 +16116,6 @@
           <t>محمدرضا افشار</t>
         </is>
       </c>
-      <c r="B1020" t="inlineStr"/>
       <c r="C1020" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17073,7 +16131,6 @@
           <t>علیرضا بوشهری</t>
         </is>
       </c>
-      <c r="B1021" t="inlineStr"/>
       <c r="C1021" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17089,7 +16146,6 @@
           <t>محمودرضا شریفیان</t>
         </is>
       </c>
-      <c r="B1022" t="inlineStr"/>
       <c r="C1022" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17105,7 +16161,6 @@
           <t>امید نیکان</t>
         </is>
       </c>
-      <c r="B1023" t="inlineStr"/>
       <c r="C1023" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17121,7 +16176,6 @@
           <t>حمیده احدی</t>
         </is>
       </c>
-      <c r="B1024" t="inlineStr"/>
       <c r="C1024" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17137,7 +16191,6 @@
           <t>مهدی ضرغامی</t>
         </is>
       </c>
-      <c r="B1025" t="inlineStr"/>
       <c r="C1025" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17153,7 +16206,6 @@
           <t>محمدرضا ذاکرحسین</t>
         </is>
       </c>
-      <c r="B1026" t="inlineStr"/>
       <c r="C1026" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17169,7 +16221,6 @@
           <t>مریم جعفری خشکرودی</t>
         </is>
       </c>
-      <c r="B1027" t="inlineStr"/>
       <c r="C1027" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/675058/user/icon/adaptable/f1?rev=126389596</t>
@@ -17185,7 +16236,6 @@
           <t>میلاد سلیمی بنی</t>
         </is>
       </c>
-      <c r="B1028" t="inlineStr"/>
       <c r="C1028" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17201,7 +16251,6 @@
           <t>احسان دهقانی برسیانی</t>
         </is>
       </c>
-      <c r="B1029" t="inlineStr"/>
       <c r="C1029" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17217,7 +16266,6 @@
           <t>سیددانیال غفاریان تربتی مجاور</t>
         </is>
       </c>
-      <c r="B1030" t="inlineStr"/>
       <c r="C1030" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17233,7 +16281,6 @@
           <t>مهدی صنایعی</t>
         </is>
       </c>
-      <c r="B1031" t="inlineStr"/>
       <c r="C1031" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17249,7 +16296,6 @@
           <t>وحیدرضا باقری</t>
         </is>
       </c>
-      <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17265,7 +16311,6 @@
           <t>محمدهادی علائیان</t>
         </is>
       </c>
-      <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17281,7 +16326,6 @@
           <t>مصطفی سلحشور</t>
         </is>
       </c>
-      <c r="B1034" t="inlineStr"/>
       <c r="C1034" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/685168/user/icon/adaptable/f1?rev=128176212</t>
@@ -17297,7 +16341,6 @@
           <t>سیده اشرف موسوی لقمان</t>
         </is>
       </c>
-      <c r="B1035" t="inlineStr"/>
       <c r="C1035" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/685760/user/icon/adaptable/f1?rev=128614987</t>
@@ -17313,7 +16356,6 @@
           <t>محمد ساعی شاهی</t>
         </is>
       </c>
-      <c r="B1036" t="inlineStr"/>
       <c r="C1036" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17329,7 +16371,6 @@
           <t>سیدعلی سرکشیکیان</t>
         </is>
       </c>
-      <c r="B1037" t="inlineStr"/>
       <c r="C1037" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17345,7 +16386,6 @@
           <t>فاطمه بهاری فرد</t>
         </is>
       </c>
-      <c r="B1038" t="inlineStr"/>
       <c r="C1038" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17361,7 +16401,6 @@
           <t>حسین فاضلی</t>
         </is>
       </c>
-      <c r="B1039" t="inlineStr"/>
       <c r="C1039" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/744920/user/icon/adaptable/f1?rev=128861592</t>
@@ -17377,7 +16416,6 @@
           <t>محمد حسین روزبهانی</t>
         </is>
       </c>
-      <c r="B1040" t="inlineStr"/>
       <c r="C1040" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/746107/user/icon/adaptable/f1?rev=128868850</t>
@@ -17393,7 +16431,6 @@
           <t>سعید رهبری شمیرانی</t>
         </is>
       </c>
-      <c r="B1041" t="inlineStr"/>
       <c r="C1041" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17409,7 +16446,6 @@
           <t>حسن محسنی</t>
         </is>
       </c>
-      <c r="B1042" t="inlineStr"/>
       <c r="C1042" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17425,7 +16461,6 @@
           <t>اروین قاسمی</t>
         </is>
       </c>
-      <c r="B1043" t="inlineStr"/>
       <c r="C1043" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/746743/user/icon/adaptable/f1?rev=128871091</t>
@@ -17441,7 +16476,6 @@
           <t>پرستو کعبی نژاد</t>
         </is>
       </c>
-      <c r="B1044" t="inlineStr"/>
       <c r="C1044" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17457,7 +16491,6 @@
           <t>زهره سادات حقایقی</t>
         </is>
       </c>
-      <c r="B1045" t="inlineStr"/>
       <c r="C1045" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17473,7 +16506,6 @@
           <t>مریم اخوان خرازیان</t>
         </is>
       </c>
-      <c r="B1046" t="inlineStr"/>
       <c r="C1046" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17489,7 +16521,6 @@
           <t>سید مسعود محموداف</t>
         </is>
       </c>
-      <c r="B1047" t="inlineStr"/>
       <c r="C1047" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17505,7 +16536,6 @@
           <t>محمدمهدی پورمدنی</t>
         </is>
       </c>
-      <c r="B1048" t="inlineStr"/>
       <c r="C1048" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17521,7 +16551,6 @@
           <t>امین عبداله زاده</t>
         </is>
       </c>
-      <c r="B1049" t="inlineStr"/>
       <c r="C1049" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17537,7 +16566,6 @@
           <t>سحر قاجار</t>
         </is>
       </c>
-      <c r="B1050" t="inlineStr"/>
       <c r="C1050" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17553,7 +16581,6 @@
           <t>مرضیه داودآبادی فراهانی</t>
         </is>
       </c>
-      <c r="B1051" t="inlineStr"/>
       <c r="C1051" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17569,7 +16596,6 @@
           <t>فرزانه غیور</t>
         </is>
       </c>
-      <c r="B1052" t="inlineStr"/>
       <c r="C1052" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17585,7 +16611,6 @@
           <t>علیرضا چاله کائی</t>
         </is>
       </c>
-      <c r="B1053" t="inlineStr"/>
       <c r="C1053" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17601,7 +16626,6 @@
           <t>محمد مولانی اقدم</t>
         </is>
       </c>
-      <c r="B1054" t="inlineStr"/>
       <c r="C1054" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17617,7 +16641,6 @@
           <t>محمدامیر سعادتی نسب</t>
         </is>
       </c>
-      <c r="B1055" t="inlineStr"/>
       <c r="C1055" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17633,7 +16656,6 @@
           <t>امیرمحمود بخشایش</t>
         </is>
       </c>
-      <c r="B1056" t="inlineStr"/>
       <c r="C1056" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17649,7 +16671,6 @@
           <t>مهدی کریمی نسب</t>
         </is>
       </c>
-      <c r="B1057" t="inlineStr"/>
       <c r="C1057" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17665,7 +16686,6 @@
           <t>محمدجواد جنتی</t>
         </is>
       </c>
-      <c r="B1058" t="inlineStr"/>
       <c r="C1058" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17681,7 +16701,6 @@
           <t>مهرانه تیراندری</t>
         </is>
       </c>
-      <c r="B1059" t="inlineStr"/>
       <c r="C1059" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17697,7 +16716,6 @@
           <t>علی تاج دین</t>
         </is>
       </c>
-      <c r="B1060" t="inlineStr"/>
       <c r="C1060" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17713,7 +16731,6 @@
           <t>محمدجواد حاجی احمدی</t>
         </is>
       </c>
-      <c r="B1061" t="inlineStr"/>
       <c r="C1061" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17729,7 +16746,6 @@
           <t>مریم حق شناس</t>
         </is>
       </c>
-      <c r="B1062" t="inlineStr"/>
       <c r="C1062" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17745,7 +16761,6 @@
           <t>سیده فاطمه نورانی</t>
         </is>
       </c>
-      <c r="B1063" t="inlineStr"/>
       <c r="C1063" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17761,7 +16776,6 @@
           <t>سیده سارا صالحی</t>
         </is>
       </c>
-      <c r="B1064" t="inlineStr"/>
       <c r="C1064" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17777,7 +16791,6 @@
           <t>کاربر تست</t>
         </is>
       </c>
-      <c r="B1065" t="inlineStr"/>
       <c r="C1065" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17793,7 +16806,6 @@
           <t>زهرا عابدینی امین آباد</t>
         </is>
       </c>
-      <c r="B1066" t="inlineStr"/>
       <c r="C1066" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17809,7 +16821,6 @@
           <t>مرتضی شفیعی</t>
         </is>
       </c>
-      <c r="B1067" t="inlineStr"/>
       <c r="C1067" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17825,7 +16836,6 @@
           <t>فاطمه زارعیان جهرمی</t>
         </is>
       </c>
-      <c r="B1068" t="inlineStr"/>
       <c r="C1068" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17841,7 +16851,6 @@
           <t>علی پادرگانی</t>
         </is>
       </c>
-      <c r="B1069" t="inlineStr"/>
       <c r="C1069" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17857,7 +16866,6 @@
           <t>سید حمید حاجی سیدجوادی</t>
         </is>
       </c>
-      <c r="B1070" t="inlineStr"/>
       <c r="C1070" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17873,7 +16881,6 @@
           <t>مرضیه راجی</t>
         </is>
       </c>
-      <c r="B1071" t="inlineStr"/>
       <c r="C1071" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17889,7 +16896,6 @@
           <t>فهیمه فرید شایگان</t>
         </is>
       </c>
-      <c r="B1072" t="inlineStr"/>
       <c r="C1072" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17905,7 +16911,6 @@
           <t>علی مینائی</t>
         </is>
       </c>
-      <c r="B1073" t="inlineStr"/>
       <c r="C1073" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17921,7 +16926,6 @@
           <t>محسن فتح اله بیاتی</t>
         </is>
       </c>
-      <c r="B1074" t="inlineStr"/>
       <c r="C1074" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17937,7 +16941,6 @@
           <t>زهره سادات حقایقی</t>
         </is>
       </c>
-      <c r="B1075" t="inlineStr"/>
       <c r="C1075" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17953,7 +16956,6 @@
           <t>شهرام جمالی کاپک</t>
         </is>
       </c>
-      <c r="B1076" t="inlineStr"/>
       <c r="C1076" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17969,7 +16971,6 @@
           <t>احسان دارستانی فراهانی</t>
         </is>
       </c>
-      <c r="B1077" t="inlineStr"/>
       <c r="C1077" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -17985,7 +16986,6 @@
           <t>ابوالحسن حسینی</t>
         </is>
       </c>
-      <c r="B1078" t="inlineStr"/>
       <c r="C1078" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -18001,7 +17001,6 @@
           <t>محمد سروی</t>
         </is>
       </c>
-      <c r="B1079" t="inlineStr"/>
       <c r="C1079" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -18017,7 +17016,6 @@
           <t>سیدحسن ذبیحی فر</t>
         </is>
       </c>
-      <c r="B1080" t="inlineStr"/>
       <c r="C1080" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -18033,7 +17031,6 @@
           <t>علیرضا مسیبی</t>
         </is>
       </c>
-      <c r="B1081" t="inlineStr"/>
       <c r="C1081" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -18049,7 +17046,6 @@
           <t>مرتضی دادور آلانق</t>
         </is>
       </c>
-      <c r="B1082" t="inlineStr"/>
       <c r="C1082" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -18065,7 +17061,6 @@
           <t>ید الله صدیقی</t>
         </is>
       </c>
-      <c r="B1083" t="inlineStr"/>
       <c r="C1083" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/pluginfile.php/822521/user/icon/adaptable/f1?rev=131158107</t>
@@ -18081,7 +17076,6 @@
           <t>کاظم چاوشی</t>
         </is>
       </c>
-      <c r="B1084" t="inlineStr"/>
       <c r="C1084" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>
@@ -18097,7 +17091,6 @@
           <t>علی علائی</t>
         </is>
       </c>
-      <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr">
         <is>
           <t>https://lms.iust.ac.ir/theme/image.php/adaptable/core/1681012778/u/f1</t>

--- a/data/teachers_info.xlsx
+++ b/data/teachers_info.xlsx
@@ -978,7 +978,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>سیدمصطفی سیادت موسوی</t>
+          <t>سید مصطفی سیادت موسوی</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>سیدمحمد شهرتاش</t>
+          <t>سید محمد شهرتاش</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1273,7 +1273,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>سیدمحمدرضا موسوی میرکلایی</t>
+          <t>سید محمدرضا موسوی میرکلایی</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>سیدحسن هاشم آبادی</t>
+          <t>سید حسن هاشم آبادی</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2228,7 +2228,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>سیدمحمد سیدحسینی</t>
+          <t>سید محمد</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>سیدهاشم مسدد</t>
+          <t>سیده اشم مسدد</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>سیدسعید سیادت نژاد</t>
+          <t>سید سعید سیادت نژاد</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>سیداصغر موسوی</t>
+          <t>سید اصغر موسوی</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>سیدسینا ثمره موسوی</t>
+          <t>سید سینا ثمره موسوی</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3583,7 +3583,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>سیدمهدی عطیفه کمال ابادفراهان</t>
+          <t>سید مهدی عطیفه کمال ابادفراهان</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4623,7 +4623,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>سیدسپهر موسوی</t>
+          <t>سید سپهر موسوی</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>سیدعلی نیک نام</t>
+          <t>سید علی نیک نام</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>سیدمهدی علوی املشی</t>
+          <t>سید مهدی علوی املشی</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>سیدسجاد میرولد</t>
+          <t>سید سجاد میرولد</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5868,7 +5868,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>سیدجواد امامی</t>
+          <t>سید جواد امامی</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>سیدحسن صدیقی</t>
+          <t>سید حسن صدیقی</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6413,7 +6413,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>سیدصالح اعتمادی</t>
+          <t>سید صالح اعتمادی</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6543,7 +6543,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>سیدمجید هاشمیان زاده</t>
+          <t>سید مجید هاشمیان زاده</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7298,7 +7298,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>سیدحجت سبزپوشان</t>
+          <t>سید حجت سبزپوشان</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -7548,7 +7548,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>دکتر سید حسین حسینی شکوه</t>
+          <t>سید حسین حسینی شکوه</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -7763,7 +7763,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>سیدمحمدمهدی عبیری</t>
+          <t>سید محمدمهدی عبیری</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -7993,7 +7993,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>سیدمیعاد صالحی</t>
+          <t>سید میعاد صالحی</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8333,7 +8333,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>سیدحسین سیدین</t>
+          <t>سید حسین</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -8603,7 +8603,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>سیدعبدالهادی دانشپور</t>
+          <t>سید عبدالهادی دانشپور</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9758,7 +9758,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>محسن پور سیداقایی</t>
+          <t>سید اقایی</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -9788,7 +9788,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>سیدمصطفی حسینعلی پور</t>
+          <t>سید مصطفی حسینعلی پور</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -9963,7 +9963,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>سیدادریس فیض آبادی</t>
+          <t>سید ادریس فیض آبادی</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10073,7 +10073,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>سیدمحمدعلی بوترابی</t>
+          <t>سید محمدعلی بوترابی</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -10853,7 +10853,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>سیدجواد ازهری</t>
+          <t>سید جواد ازهری</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -10868,7 +10868,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>سیدنظام الدین اشرفی زاده</t>
+          <t>سید نظام الدین اشرفی زاده</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -10948,7 +10948,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>سیدمحمدعلی موسوی</t>
+          <t>سید محمدعلی موسوی</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -11243,7 +11243,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>سیدذبیح الله طباطبایی شیرازانی</t>
+          <t>سید ذبیح الله طباطبایی شیرازانی</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -11558,7 +11558,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>سیدمحمود میرطباطبایی</t>
+          <t>سید محمود میرطباطبایی</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12078,7 +12078,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>سیدمجید مفیدی شمیرانی</t>
+          <t>سید مجید مفیدی شمیرانی</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -13323,7 +13323,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>سیدمجتبی حسینی نسب</t>
+          <t>سید مجتبی حسینی نسب</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -13843,7 +13843,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>سیداصغر ابن الرسول</t>
+          <t>سید اصغر ابن الرسول</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -13948,7 +13948,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>سیدامیر منصوری</t>
+          <t>سید امیر منصوری</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -14528,7 +14528,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>سیدرضا علمی حسینی</t>
+          <t>سید رضا علمی حسینی</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -14543,7 +14543,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>سیدمجتبی میرحسینی</t>
+          <t>سید مجتبی میرحسینی</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -14768,7 +14768,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>سیدعلی حسینی</t>
+          <t>سید علی حسینی</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -15408,7 +15408,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>سیدمهدی حسینی دولت آبادی</t>
+          <t>سید مهدی حسینی دولت آبادی</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -15498,7 +15498,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>سیدعلی قهاری</t>
+          <t>سید علی قهاری</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -15578,7 +15578,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>سیدحسن موسوی</t>
+          <t>سید حسن موسوی</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -15623,7 +15623,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>سیدحامد رستگار</t>
+          <t>سید حامد رستگار</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -15913,7 +15913,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>سیدابوالفضل حسینی زاده</t>
+          <t>سید ابوالفضل حسینی زاده</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -15988,7 +15988,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>سید علیرضا سیدوکیلی</t>
+          <t>سید علیرضا</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -16263,7 +16263,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>سیددانیال غفاریان تربتی مجاور</t>
+          <t>سید دانیال غفاریان تربتی مجاور</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -16368,7 +16368,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>سیدعلی سرکشیکیان</t>
+          <t>سید علی سرکشیکیان</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -16863,7 +16863,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>سید حمید حاجی سیدجوادی</t>
+          <t>سید حمید حاجی</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -17013,7 +17013,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>سیدحسن ذبیحی فر</t>
+          <t>سید حسن ذبیحی فر</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
